--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="12465"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="theme" sheetId="4" r:id="rId4"/>
     <sheet name="קטגוריות" sheetId="5" r:id="rId5"/>
     <sheet name="צבעים" sheetId="6" r:id="rId6"/>
+    <sheet name="תרגומים" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
   <si>
     <t>You will need to reinstall the software and specify the correct directory, which is public_html</t>
   </si>
@@ -742,6 +743,75 @@
   </si>
   <si>
     <t>להשמיש HTTPS במעבר לסל קניות, כנראה לא מקומית</t>
+  </si>
+  <si>
+    <t>תמונות - איפה שיש פרינט לשים תמונה גם של הפרינט עצמו</t>
+  </si>
+  <si>
+    <t>במוצר בטאבים למטה, להחליף כך שמוצרים נוספים יהיה ראשון. לשנות לו כותרת ל "אביזרים ומוצרים דומים", לבטל כפתור הוסף לסל (אולי את שניהם ?)</t>
+  </si>
+  <si>
+    <t>לשפר את הדגימות צבע, במאפיין צבע.</t>
+  </si>
+  <si>
+    <t>בחצאית מסתובבת, לשנות את המלל הקשור ל"גומי אלסטי" (כפול)</t>
+  </si>
+  <si>
+    <t>ללמוד את נושא ה RULE, להבין איך לדוגמה לתת הנחה לכל החצאיות קיץ ביחד</t>
+  </si>
+  <si>
+    <t>לעבור רוחבית על המוצרים ולסדר את החיבור לקטגוריות לפי הEXCEL</t>
+  </si>
+  <si>
+    <t>לשבת על התמחור של המשלוחים. בעייתי לתת שליח ב10 שח בקנייה מעל 69</t>
+  </si>
+  <si>
+    <t>להגדיר כמה פריטים יהיו בעמוד, כדי לקבוע אם יהיה דפדוף</t>
+  </si>
+  <si>
+    <t>עמוד</t>
+  </si>
+  <si>
+    <t>שדה</t>
+  </si>
+  <si>
+    <t>הערות</t>
+  </si>
+  <si>
+    <t>רישום לקוח</t>
+  </si>
+  <si>
+    <t>החשבון שלי</t>
+  </si>
+  <si>
+    <t>לוודא שההערות של חזרה אחורה וחזרה לעמוד הראשי - זהות</t>
+  </si>
+  <si>
+    <t>לבדוק איך עובד הNEWLETTER</t>
+  </si>
+  <si>
+    <t>זהה לפרטים אישיים בחשבון שלי</t>
+  </si>
+  <si>
+    <t>כניסה</t>
+  </si>
+  <si>
+    <t>עמוד הזדהות, כותרות וכפתורים</t>
+  </si>
+  <si>
+    <t>ניהול המוצרים המועדפים. הסרתי בעבר את הכפתור מדף המוצר, לכן כרגע אני מסיר גם את הבלוק מהתפריט של החשבון שלי</t>
+  </si>
+  <si>
+    <t>בכתובת שלי, לבטל את המדינה, ממילא זה רק ישראל. צריך לשנות בהזנת/עדכון כתובת, גם בOPC וכנראה גם לדרוך תמיד ישראל בDB</t>
+  </si>
+  <si>
+    <t>לזכות, לייצר וואוצ'ר ולרכוש בעזרתו</t>
+  </si>
+  <si>
+    <t>OPC</t>
+  </si>
+  <si>
+    <t>תרגום של כל הדף, כולל מקרה שהסל ריק</t>
   </si>
 </sst>
 </file>
@@ -878,7 +948,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -895,7 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -919,11 +988,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,21 +1322,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView rightToLeft="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="85.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>171</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1264,7 +1347,7 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -1273,7 +1356,7 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
@@ -1300,7 +1383,7 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
@@ -1309,7 +1392,7 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -1318,7 +1401,7 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
@@ -1354,7 +1437,7 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3"/>
@@ -1363,31 +1446,31 @@
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="28.5">
@@ -1408,7 +1491,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="3"/>
@@ -2073,7 +2156,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3"/>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="15" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="3"/>
@@ -2083,88 +2166,88 @@
       <c r="B112" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C112" s="19"/>
+      <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3"/>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="20" t="s">
         <v>173</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3"/>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3"/>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3"/>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3"/>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3"/>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3"/>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3"/>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3"/>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="20" t="s">
         <v>208</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3"/>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3"/>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3"/>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C124" s="3"/>
@@ -2173,54 +2256,54 @@
       <c r="A125" s="8">
         <v>41546</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>199</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3"/>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>201</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3"/>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="20" t="s">
         <v>202</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="21" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="22" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="22" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="22" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2230,52 +2313,52 @@
       </c>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="23" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="24" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="25" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="30">
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="23" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="23" t="s">
         <v>219</v>
       </c>
       <c r="C144" t="s">
@@ -2283,7 +2366,7 @@
       </c>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C145" t="s">
@@ -2291,23 +2374,83 @@
       </c>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="28.5">
+      <c r="B151" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="28.5">
+      <c r="B159" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="28.5">
+      <c r="B160" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2522,13 +2665,13 @@
       <c r="D1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="28.5">
       <c r="A2" s="3" t="s">
@@ -2878,13 +3021,13 @@
       <c r="A33" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>13</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2892,4 +3035,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,22 +14,17 @@
     <sheet name="קטגוריות" sheetId="5" r:id="rId5"/>
     <sheet name="צבעים" sheetId="6" r:id="rId6"/>
     <sheet name="תרגומים" sheetId="7" r:id="rId7"/>
+    <sheet name="עלות משלוח" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$163</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
-  <si>
-    <t>You will need to reinstall the software and specify the correct directory, which is public_html</t>
-  </si>
-  <si>
-    <t>לעדכן ADMIN ACCOUNT</t>
-  </si>
-  <si>
-    <t>לעדכן כתובת ל soomsoom.www80.a2hosting.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="271">
   <si>
     <t>SETUP</t>
   </si>
@@ -38,12 +33,6 @@
   </si>
   <si>
     <t>להפוך שח לפעיל</t>
-  </si>
-  <si>
-    <t>שאלה</t>
-  </si>
-  <si>
-    <t>התקנה בהוסט</t>
   </si>
   <si>
     <t>התקנה מקומית</t>
@@ -52,12 +41,6 @@
     <t>להוריד ולהתקין WAMP
 להקים DB
 להוריד ולהתקין PRESTA, בהתקנה יש לציין DB שהוקם</t>
-  </si>
-  <si>
-    <t>למה אחרי שהחלפתי טמפלט דברים התערבבו - בגלל שכל טמפלט מניח שהוא יוצא מ DEFAULT</t>
-  </si>
-  <si>
-    <t>בעיה עם תמונות ברירת מחדל בהחלפת טמפלט - אחרי ההתקנה יש לעדכן גודל לפי המוגדר ב CONFIG.XML</t>
   </si>
   <si>
     <t>עיברית</t>
@@ -174,9 +157,6 @@
   </si>
   <si>
     <t>לעדכן עברית להיות RTL</t>
-  </si>
-  <si>
-    <t>להמיר CSS כדי שיהיה ימין לשמאל דרך אתר השירות</t>
   </si>
   <si>
     <t>להסיר את המודול של FEATURE PRODUCTS מהעמוד הראשון</t>
@@ -696,9 +676,6 @@
 </t>
   </si>
   <si>
-    <t>בדף קטגוריה - להגדיל את הצילום לפי הצורך</t>
-  </si>
-  <si>
     <t>טיפול בפונקציות של "שיתוף"</t>
   </si>
   <si>
@@ -706,9 +683,6 @@
   </si>
   <si>
     <t>האם לקשר כל מוצר גם לHOME ? בנים/בנות ? מה המשמעות ?</t>
-  </si>
-  <si>
-    <t>לקנפג ZOOM</t>
   </si>
   <si>
     <t>לצמצם מסך ולראות שתקין (MEDIA)</t>
@@ -812,6 +786,105 @@
   </si>
   <si>
     <t>תרגום של כל הדף, כולל מקרה שהסל ריק</t>
+  </si>
+  <si>
+    <t>לשפצר את האיזור של שם מוצר, קוד, מחיר. שיהיה דומה לקסטרו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחיר תיקרה למשלוח חינם </t>
+  </si>
+  <si>
+    <t>דואר רשום</t>
+  </si>
+  <si>
+    <t>שליח</t>
+  </si>
+  <si>
+    <t>עד התקרה</t>
+  </si>
+  <si>
+    <t>מעל התקרה</t>
+  </si>
+  <si>
+    <t>לחפש פורמט עלות, לבטל נקודה עשרונית</t>
+  </si>
+  <si>
+    <t>עדיפות</t>
+  </si>
+  <si>
+    <t>סגור</t>
+  </si>
+  <si>
+    <t>קופה</t>
+  </si>
+  <si>
+    <t>בצ'ק אוט צריך להפוך את סדר הטורים. לראות לפי עדיקה. גודל כותרת קופה</t>
+  </si>
+  <si>
+    <t>ניהול מוצרים</t>
+  </si>
+  <si>
+    <t>למה הלוגו של פייפל מופיע בכל עמוד ? אפשר לבצע איתו רכישת אקספרס ?</t>
+  </si>
+  <si>
+    <t>לסיים תרגום של העמוד, לא ברור מדוע חלק מהמלל לא מתרגם, כולל אחרי ששילבתי XXX</t>
+  </si>
+  <si>
+    <t>מוקפא</t>
+  </si>
+  <si>
+    <t>עדכון לוגו - עדכון צבע, להפוך לוקטורי - אביגיל</t>
+  </si>
+  <si>
+    <t>לייצר IMAGE לקטגוריות</t>
+  </si>
+  <si>
+    <t>בדף קטגוריה - להגדיל את הצילום לפי הצורך, לצמצם מרחק בין התמונה והמלל</t>
+  </si>
+  <si>
+    <t>באנרים במסך הראשון - לייצר + לקשר לאתר עצמו</t>
+  </si>
+  <si>
+    <t>התקנת סביבה</t>
+  </si>
+  <si>
+    <t>לעדכן תמונות בדף הכניסה, גם לפני העלאה לאתר</t>
+  </si>
+  <si>
+    <t>לעדכן דף סרגל מידות</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>להתאים לצבעוניות של האתר</t>
+  </si>
+  <si>
+    <t>תמיכה באתר במובייל (MEDIA)
+- חלק מהדברים צריך לתרגם מחדש, או ששינויים שעשיתי לא תפסו כי התמיכה בנייד היא בעמוד אחר.
+- OPC נראה גרוע.
+- ZOOM</t>
+  </si>
+  <si>
+    <t>לקנפג ZOOM, אחרי שחליטים על גודל התמונה. כולל לקנות או להסיר את הכותרת</t>
+  </si>
+  <si>
+    <t>תפעול אתר</t>
+  </si>
+  <si>
+    <t>לשלב נושא של משלוחים, כולל הערות על זמני המשלוח, כולל למצוא חברה שתעשה את זה גם לגבי העלות</t>
+  </si>
+  <si>
+    <t>חוקי מחיר</t>
+  </si>
+  <si>
+    <t>לחפש מודול שיתמוך במבצעים שאני רוצה, בעיקר - 2 במחיר 99. להגדיר איך רואים במוצר עצמו.</t>
+  </si>
+  <si>
+    <t>מודול לקוחות</t>
+  </si>
+  <si>
+    <t>להתקין מודול בו הלקוחות מקבלים נקודות, גם עבור הלקוחות שהם הביאו. מצאתי כבר אחד כזה</t>
   </si>
 </sst>
 </file>
@@ -948,7 +1021,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -961,7 +1034,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -988,25 +1060,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,1140 +1379,1500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>246</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" hidden="1">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" hidden="1">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" hidden="1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="42.75">
-      <c r="A4" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="57">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" hidden="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="28.5">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5">
-      <c r="A18" s="8">
-        <v>41514</v>
-      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="42.75">
-      <c r="A19" s="8"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5">
+      <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="28.5">
-      <c r="A21" s="8">
-        <v>41518</v>
-      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8">
-        <v>41518</v>
-      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="57">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="42.75">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="28.5">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="28.5">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8">
-        <v>41521</v>
-      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="57">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="42.75">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8">
-        <v>41525</v>
-      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="28.5">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="28.5">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="28.5">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8">
-        <v>41526</v>
-      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="8">
-        <v>41557</v>
-      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="28.5">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="199.5">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="8">
-        <v>41558</v>
-      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" ht="199.5">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="28.5">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="8">
-        <v>41567</v>
-      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="8"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="8"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
       <c r="B71" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="57">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="3"/>
       <c r="B73" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="3"/>
       <c r="B74" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="42.75">
       <c r="A75" s="3"/>
-      <c r="B75" s="4" t="s">
-        <v>97</v>
+      <c r="B75" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="8">
-        <v>41568</v>
-      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3" ht="28.5">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="42.75">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3" ht="57">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" hidden="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3" ht="42.75">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="3"/>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="8">
-        <v>41569</v>
-      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="28.5">
       <c r="A88" s="3"/>
       <c r="B88" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3" ht="42.75">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="3"/>
       <c r="B91" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="8">
-        <v>41540</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" hidden="1">
+      <c r="A92" s="3"/>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="3"/>
       <c r="B95" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3" ht="28.5">
-      <c r="A98" s="8">
-        <v>41541</v>
-      </c>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="28.5">
+      <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="28.5">
       <c r="A100" s="3"/>
       <c r="B100" s="4" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="3"/>
-      <c r="B101" s="4" t="s">
-        <v>123</v>
+      <c r="B101" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="3"/>
-      <c r="B102" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="B102" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="3"/>
-      <c r="B103" s="4" t="s">
-        <v>125</v>
+      <c r="B103" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="8">
-        <v>41542</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>126</v>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3"/>
+      <c r="B104" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="3"/>
       <c r="B105" s="4" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="3"/>
       <c r="B106" s="4" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="3"/>
       <c r="B107" s="4" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3" ht="28.5">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="8">
-        <v>41543</v>
-      </c>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" ht="28.5">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="3"/>
       <c r="B110" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="3"/>
-      <c r="B111" s="15" t="s">
-        <v>169</v>
+      <c r="B111" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="3"/>
-      <c r="B112" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" s="18"/>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="B112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="3"/>
-      <c r="B113" s="20" t="s">
-        <v>173</v>
+      <c r="B113" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="3"/>
-      <c r="B114" s="20" t="s">
-        <v>174</v>
+      <c r="B114" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="3"/>
       <c r="B116" s="4" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" s="3"/>
       <c r="B117" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="3"/>
-      <c r="B118" s="4" t="s">
-        <v>193</v>
+      <c r="B118" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" s="3"/>
-      <c r="B119" s="4" t="s">
-        <v>194</v>
+      <c r="B119" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="3"/>
-      <c r="B120" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="B120" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="3"/>
-      <c r="B121" s="20" t="s">
-        <v>208</v>
+      <c r="B121" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="3"/>
-      <c r="B122" s="4" t="s">
-        <v>196</v>
+      <c r="B122" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="3"/>
-      <c r="B123" s="4" t="s">
-        <v>197</v>
+      <c r="B123" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" ht="71.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="8">
-        <v>41546</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3"/>
+      <c r="B125" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2</v>
+      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="3"/>
-      <c r="B126" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="B126" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="3">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" s="3"/>
-      <c r="B127" s="4" t="s">
-        <v>201</v>
+      <c r="B127" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" s="3"/>
-      <c r="B128" s="20" t="s">
-        <v>202</v>
+      <c r="B128" s="18" t="s">
+        <v>204</v>
       </c>
       <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="22" t="s">
+      <c r="D128" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3"/>
+      <c r="B129" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="3">
+        <v>1</v>
+      </c>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" hidden="1">
+      <c r="A130" s="3"/>
+      <c r="B130" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="22" t="s">
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30" hidden="1">
+      <c r="A131" s="3"/>
+      <c r="B131" s="19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="22" t="s">
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3"/>
+      <c r="B132" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C132" s="3">
+        <v>2</v>
+      </c>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" hidden="1">
+      <c r="A133" s="3"/>
+      <c r="B133" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" ht="71.25">
-      <c r="B134" s="1" t="s">
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1">
+      <c r="A134" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135" s="23" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1">
+      <c r="A135" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="24" t="s">
+      <c r="B135" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" s="23" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138" s="24" t="s">
+      <c r="C136" s="3">
+        <v>2</v>
+      </c>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" hidden="1">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" s="25" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" s="25" t="s">
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" ht="30">
-      <c r="B141" s="19" t="s">
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3"/>
+      <c r="B140" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="24" t="s">
+      <c r="C140" s="3">
+        <v>2</v>
+      </c>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" ht="28.5">
+      <c r="A141" s="3"/>
+      <c r="B141" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2</v>
+      </c>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="23" t="s">
+      <c r="C142" s="3">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="1" t="s">
+      <c r="C144" s="3">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" hidden="1">
+      <c r="A145" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C145" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="1" t="s">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3"/>
+      <c r="B146" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="1" t="s">
+      <c r="C146" s="3">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3"/>
+      <c r="B147" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" ht="28.5">
-      <c r="B151" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="1" t="s">
+      <c r="C147" s="3">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3"/>
+      <c r="B148" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" ht="28.5">
-      <c r="B159" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" ht="28.5">
-      <c r="B160" s="1" t="s">
+      <c r="C148" s="3">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" ht="28.5">
+      <c r="A149" s="3"/>
+      <c r="B149" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" ht="28.5">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" hidden="1">
+      <c r="A151" s="3"/>
+      <c r="B151" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="3">
+        <v>2</v>
+      </c>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" hidden="1">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="161" spans="2:2">
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3"/>
+      <c r="B155" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3"/>
+      <c r="B157" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C157" s="3">
+        <v>2</v>
+      </c>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3"/>
+      <c r="B160" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>261</v>
+      </c>
       <c r="B161" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
+      </c>
+      <c r="C161" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="57">
+      <c r="B162" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C162" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>248</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>265</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>267</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>269</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D163">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B141" r:id="rId1"/>
+    <hyperlink ref="B131" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2477,32 +2894,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2526,31 +2943,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2594,42 +3011,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2657,51 +3074,51 @@
     <row r="1" spans="1:14" ht="15">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+        <v>146</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" ht="28.5">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>185</v>
+        <v>150</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="42.75">
@@ -2713,30 +3130,30 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2749,10 +3166,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2760,10 +3177,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2771,12 +3188,12 @@
     </row>
     <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -2788,10 +3205,10 @@
     </row>
     <row r="11" spans="1:14" ht="28.5">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2799,10 +3216,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2816,20 +3233,20 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2842,37 +3259,37 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C17" s="4">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.5">
       <c r="A18" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2880,23 +3297,23 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2911,10 +3328,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3">
         <v>13</v>
@@ -2929,72 +3346,72 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3">
         <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.5">
       <c r="A29" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C29" s="3">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3005,30 +3422,30 @@
     </row>
     <row r="32" spans="1:5" ht="42.75">
       <c r="A32" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3">
         <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="17">
+        <v>183</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="16">
         <v>13</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>192</v>
+      <c r="D33" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3039,55 +3456,123 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>237</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="עלות משלוח" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$175</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="299">
   <si>
     <t>SETUP</t>
   </si>
@@ -860,31 +860,120 @@
     <t>להתאים לצבעוניות של האתר</t>
   </si>
   <si>
+    <t>לקנפג ZOOM, אחרי שחליטים על גודל התמונה. כולל לקנות או להסיר את הכותרת</t>
+  </si>
+  <si>
+    <t>תפעול אתר</t>
+  </si>
+  <si>
+    <t>לשלב נושא של משלוחים, כולל הערות על זמני המשלוח, כולל למצוא חברה שתעשה את זה גם לגבי העלות</t>
+  </si>
+  <si>
+    <t>חוקי מחיר</t>
+  </si>
+  <si>
+    <t>לחפש מודול שיתמוך במבצעים שאני רוצה, בעיקר - 2 במחיר 99. להגדיר איך רואים במוצר עצמו.</t>
+  </si>
+  <si>
+    <t>להתקין מודול בו הלקוחות מקבלים נקודות, גם עבור הלקוחות שהם הביאו. מצאתי כבר אחד כזה</t>
+  </si>
+  <si>
+    <t>אתר</t>
+  </si>
+  <si>
+    <t>סיסמה של המשתמש בבסיס נתונים shokolad123</t>
+  </si>
+  <si>
+    <t>תוכן - מוצרים</t>
+  </si>
+  <si>
+    <t>לצלם את המוצרים הקיימים ןלהעלות לאתר, כך ניתן יהיה גם לסגור את העיצוב של הדף מוצר.</t>
+  </si>
+  <si>
+    <t>לעדכן לפני שאני מעלה את האתר:
+- להחליף תמונות של הילדים.
+- תמונות של באנרים ושל קטגוריות.
+- הערה - האתר בהרצה לא ניתן לבצע רכישות.</t>
+  </si>
+  <si>
+    <t>מודול נאמנות</t>
+  </si>
+  <si>
+    <t>תוכן - אתר</t>
+  </si>
+  <si>
+    <t>לחפש את המלל בפוקס שמדבר על צבירת נקודות במועדכון לקוחות</t>
+  </si>
+  <si>
+    <t>לבדוק שליחת מיילים דרך האתר, אחרי שהוא באוויר</t>
+  </si>
+  <si>
+    <t>תמונות לסליידר בעמוד הבית</t>
+  </si>
+  <si>
+    <t>התקנת אתר</t>
+  </si>
+  <si>
+    <t>תשלום</t>
+  </si>
+  <si>
+    <t>לקנפג פייפל, אחרי עלייה לאוויר</t>
+  </si>
+  <si>
     <t>תמיכה באתר במובייל (MEDIA)
 - חלק מהדברים צריך לתרגם מחדש, או ששינויים שעשיתי לא תפסו כי התמיכה בנייד היא בעמוד אחר.
 - OPC נראה גרוע.
-- ZOOM</t>
-  </si>
-  <si>
-    <t>לקנפג ZOOM, אחרי שחליטים על גודל התמונה. כולל לקנות או להסיר את הכותרת</t>
-  </si>
-  <si>
-    <t>תפעול אתר</t>
-  </si>
-  <si>
-    <t>לשלב נושא של משלוחים, כולל הערות על זמני המשלוח, כולל למצוא חברה שתעשה את זה גם לגבי העלות</t>
-  </si>
-  <si>
-    <t>חוקי מחיר</t>
-  </si>
-  <si>
-    <t>לחפש מודול שיתמוך במבצעים שאני רוצה, בעיקר - 2 במחיר 99. להגדיר איך רואים במוצר עצמו.</t>
-  </si>
-  <si>
-    <t>מודול לקוחות</t>
-  </si>
-  <si>
-    <t>להתקין מודול בו הלקוחות מקבלים נקודות, גם עבור הלקוחות שהם הביאו. מצאתי כבר אחד כזה</t>
+- ZOOM
+- לוודא שכל הCSS מוסבים</t>
+  </si>
+  <si>
+    <t>לידיעה</t>
+  </si>
+  <si>
+    <t>עלייה לאוויר</t>
+  </si>
+  <si>
+    <t>להחזיר CACH ועוד מאפיינים בעמוד, לבדוק מה זה CCC</t>
+  </si>
+  <si>
+    <t>מודול להתקנה</t>
+  </si>
+  <si>
+    <t>עיצוב</t>
+  </si>
+  <si>
+    <t>לצבוע SALE באדום</t>
+  </si>
+  <si>
+    <t>שירות לקוחות</t>
+  </si>
+  <si>
+    <t>להוסיף צור קשר</t>
+  </si>
+  <si>
+    <t>עקרונות</t>
+  </si>
+  <si>
+    <t>איכות מצויינת, עיצוב מעודכן ומחיר הוגן
+איפה משלבים ?</t>
+  </si>
+  <si>
+    <t>בטולטיפ של הקטגוריות מצד ימין - לבטל שמראה את המלל של הקטגוריה</t>
+  </si>
+  <si>
+    <t>תוכן</t>
+  </si>
+  <si>
+    <t>לשלב שירים מתוך פרוייקט בן יהודה</t>
+  </si>
+  <si>
+    <t>קידום מכירות</t>
+  </si>
+  <si>
+    <t>תמונות עם סבתות, 3 דורות</t>
+  </si>
+  <si>
+    <t>בקטגוריות - לסדר את התמונה. להזיז ימינה ולהצמיד מלל לכותרת. בחלק מהמקרים יש עוד קו לבן חוצה</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1469,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView rightToLeft="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1489,13 +1578,15 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="28.5">
+    <row r="9" spans="1:4" ht="28.5" hidden="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="42.75" hidden="1">
       <c r="A10" s="3"/>
@@ -1517,69 +1608,85 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5">
+    <row r="12" spans="1:4" ht="28.5" hidden="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="28.5">
       <c r="A20" s="3"/>
@@ -1589,61 +1696,75 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="57">
+      <c r="D23" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="57" hidden="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="42.75">
+      <c r="D24" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42.75" hidden="1">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="28.5">
       <c r="A28" s="3"/>
@@ -1677,45 +1798,55 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3"/>
@@ -1725,157 +1856,195 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="28.5">
+      <c r="D38" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" hidden="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" ht="199.5">
+      <c r="D49" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="199.5" hidden="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3"/>
@@ -1886,68 +2055,84 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="B58" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3"/>
@@ -2003,7 +2188,9 @@
         <v>96</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3"/>
@@ -2011,7 +2198,9 @@
         <v>97</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3"/>
@@ -2019,7 +2208,9 @@
         <v>98</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="42.75">
       <c r="A75" s="3"/>
@@ -2027,63 +2218,79 @@
         <v>101</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3"/>
       <c r="B76" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3"/>
       <c r="B79" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" ht="42.75">
+    <row r="80" spans="1:4" ht="42.75" hidden="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="83" spans="1:4" hidden="1">
       <c r="A83" s="3"/>
@@ -2095,36 +2302,44 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="3"/>
       <c r="B85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="28.5">
@@ -2132,24 +2347,30 @@
       <c r="B88" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>2</v>
+      </c>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="3"/>
@@ -2199,21 +2420,25 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1">
       <c r="A96" s="3"/>
       <c r="B96" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1">
       <c r="A97" s="3"/>
       <c r="B97" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="28.5">
       <c r="A98" s="3"/>
@@ -2277,7 +2502,9 @@
         <v>174</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3"/>
@@ -2285,7 +2512,9 @@
         <v>175</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3"/>
@@ -2293,7 +2522,9 @@
         <v>176</v>
       </c>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3"/>
@@ -2301,7 +2532,9 @@
         <v>185</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3"/>
@@ -2480,7 +2713,7 @@
     <row r="129" spans="1:4">
       <c r="A129" s="3"/>
       <c r="B129" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C129" s="3">
         <v>1</v>
@@ -2811,62 +3044,225 @@
       </c>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C161" s="16">
+      <c r="C161" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="57">
-      <c r="B162" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C162" s="16">
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" ht="71.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C163" s="16">
+      <c r="C163" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="B165" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B167" s="4" t="s">
         <v>270</v>
       </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" ht="57">
+      <c r="A169" s="3"/>
+      <c r="B169" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3"/>
+      <c r="B171" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" s="3">
+        <v>99</v>
+      </c>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C174" s="3">
+        <v>99</v>
+      </c>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3</v>
+      </c>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:3" ht="28.5">
+      <c r="A177" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C177" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C178" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D163">
+  <autoFilter ref="B1:D175">
     <filterColumn colId="2">
       <filters blank="1"/>
     </filterColumn>
@@ -2932,7 +3328,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3058,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D177" sqref="A177:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3212,54 +3212,61 @@
       </c>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:3" ht="28.5">
-      <c r="A177" s="16" t="s">
+    <row r="177" spans="1:4" ht="28.5">
+      <c r="A177" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C177" s="16">
+      <c r="C177" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="16" t="s">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C178" s="16">
+      <c r="C178" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="16" t="s">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="16" t="s">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="16" t="s">
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="3">
         <v>2</v>
       </c>
+      <c r="D181" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:D175">
@@ -3454,7 +3461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="309">
   <si>
     <t>SETUP</t>
   </si>
@@ -974,6 +974,37 @@
   </si>
   <si>
     <t>בקטגוריות - לסדר את התמונה. להזיז ימינה ולהצמיד מלל לכותרת. בחלק מהמקרים יש עוד קו לבן חוצה</t>
+  </si>
+  <si>
+    <t>מימון המונים</t>
+  </si>
+  <si>
+    <t>וידאו דרך fivver. לחפש לפי powtoon 
+http://fiverr.com/buihals/create-a-professional-animated-explainer-video</t>
+  </si>
+  <si>
+    <t>קידום - יש יועץ בFIVVER</t>
+  </si>
+  <si>
+    <t>פייסבוק</t>
+  </si>
+  <si>
+    <t>קמפיין הסבתות הגדול. איך לתת זיכוי של 10 ש"ח כך שיוכלו לנצל רק אחד כזה לכל משתמש</t>
+  </si>
+  <si>
+    <t>עיצוב של המיילים שנשלחים לאחר רישום</t>
+  </si>
+  <si>
+    <t>הערות של אביגיל + להראות לה שוב</t>
+  </si>
+  <si>
+    <t>האם להחליף את המילה קופון במילה זיכוי ?</t>
+  </si>
+  <si>
+    <t>האם להזכיר את הלוגו/שם של headstart בסרטון ? להפנות לאתר ? להגיד את המלל "אתר מימון המונים"</t>
+  </si>
+  <si>
+    <t>להוסיף את הלינק לאתר לסרטון ביוטיוב</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D177" sqref="A177:D181"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3267,6 +3298,73 @@
         <v>2</v>
       </c>
       <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" ht="28.5">
+      <c r="A182" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D182" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:D175">

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="351">
   <si>
     <t>SETUP</t>
   </si>
@@ -1206,6 +1206,12 @@
 שקף2 - כמה עלה לייצר אותם (בלשון עבר)
 שקף 4 - אומרים למכור LIMKOR ולא LINHOR
 שקף 5 - משהו השתנה פתאום בסאונד כאילו התקרבת למקרופון. זה פשוט מאוד בולט</t>
+  </si>
+  <si>
+    <t>להוסיף תמונות של ZOOM IN בעיקר במקומות שבהם יש רק תמונה אחת</t>
+  </si>
+  <si>
+    <t>בתמונות - האם לחתוך החוצה את השוליים הלבנים סביב המוצר ? כדי שהוא יהיה גדול יותר</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1762,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="19" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4498,6 +4504,22 @@
       </c>
       <c r="B218" s="1" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="239" spans="4:4">

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18975" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="18975" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,17 @@
     <sheet name="צבעים" sheetId="6" r:id="rId6"/>
     <sheet name="עלות משלוח" sheetId="8" r:id="rId7"/>
     <sheet name="דף דומיין" sheetId="9" r:id="rId8"/>
+    <sheet name="איתור טמפלט" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$260</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="447">
   <si>
     <t>SETUP</t>
   </si>
@@ -1213,12 +1214,359 @@
   <si>
     <t>בתמונות - האם לחתוך החוצה את השוליים הלבנים סביב המוצר ? כדי שהוא יהיה גדול יותר</t>
   </si>
+  <si>
+    <t>להבין איך להוסיף לינק לסרטון</t>
+  </si>
+  <si>
+    <t>דף הבית - משלוחים והחזרות חינם - צריך להזיז או לשנות גודל, רקע אחורי</t>
+  </si>
+  <si>
+    <t>צריך להוסיף TAB קבוע של טבלת מידות</t>
+  </si>
+  <si>
+    <t>דף מוצר - רווח גדול מידי בין התמונות הקטנות</t>
+  </si>
+  <si>
+    <t>דף מוצר - מידע נוסף והנחיות - להזיז ימינה שיהיה באותו הקו של מסתובבת</t>
+  </si>
+  <si>
+    <t>לסדר פונט של טלפון ומייל שירות לקוחות כדי שיהיה כמו הרשימה מימין</t>
+  </si>
+  <si>
+    <t>משלוחים והחזרות - לייצר באנר כמו קסטרו בראש העמוד, שמוביל לחלונית עם פרטים.</t>
+  </si>
+  <si>
+    <t>תפריט בצד ימין: להוסיף קו תחתון מתחת לבנים/בנות/סייל. לבטל קו בין הקבוצות.</t>
+  </si>
+  <si>
+    <t>לוגו של הפייפל שמופיע בדף המוצר לצורך תשלום מיידי - לבטל (אתה יודע אם זה סטנדרט שהוא מופיע ככה?)</t>
+  </si>
+  <si>
+    <t>צריך לייצר תפריט למעלה (בשורה של בנים בנות) אבל בצד שמאל עם CSS נפרד ועם עיצוב אחר. התפריט יכלול :אודות, שירות לקוחות (דף שיכיל גם משלוחים והחזרות).</t>
+  </si>
+  <si>
+    <t>אתר - עיצוב - אביגיל</t>
+  </si>
+  <si>
+    <t>דף מוצר, ישור למעלה של כותרת פריט + תמונה ראשית + תמונה קטנה עליונה (לדעתי זה קיים, צריך לוודא. פשוט בתמונה של הפריטים יש מסגרת לבנה גדולה)</t>
+  </si>
+  <si>
+    <t>אתר - תפעול</t>
+  </si>
+  <si>
+    <t>לפתוח חשבון בדואר לגוביינה של חבילות</t>
+  </si>
+  <si>
+    <t>משלוח עם שליח - לאתר ספק + לתמחר. לבדוק קסטרו ועדיקא</t>
+  </si>
+  <si>
+    <t>טבלת מידות - לשלב בתוך DESCRIPTION ולשלוח דוגמה לאביגיל</t>
+  </si>
+  <si>
+    <t>לשאול אותה שוב לגבי הישור של הטאבים שמאלה</t>
+  </si>
+  <si>
+    <t>לקבל מיניב הסבר איך לכבות את הPAYPAL בכל תחתית עמוד</t>
+  </si>
+  <si>
+    <t>אתר - התקנה</t>
+  </si>
+  <si>
+    <t>להשמיש HTTPS במעבר לסל קניות, כנראה לא מקומית - לבדוק אם צריך, לדבר עם יניב</t>
+  </si>
+  <si>
+    <t>הדסטרט</t>
+  </si>
+  <si>
+    <t>לפי יוסי  - יש חשיבות גדולה לצילום על ילדים. כנראה גם לאתר עצמו</t>
+  </si>
+  <si>
+    <t>גיוס - תשלום חוזר לאנשים</t>
+  </si>
+  <si>
+    <t>רועי הרשמון, רחלי</t>
+  </si>
+  <si>
+    <t>דף ראשי</t>
+  </si>
+  <si>
+    <t>באנרים שהם לינקים</t>
+  </si>
+  <si>
+    <t>דף מוצר</t>
+  </si>
+  <si>
+    <t>זום שמוצג מחוץ לתמונה</t>
+  </si>
+  <si>
+    <t>כללי</t>
+  </si>
+  <si>
+    <t>הכנה לצבעוניות לבנה/נקיה</t>
+  </si>
+  <si>
+    <t>מקום להוסיף באנר של "משלוחים חינם"</t>
+  </si>
+  <si>
+    <t>אפשרות להוסיף מיקום בולט לעזרה/צור קשר למעלה</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>תמיכה ב 1.55/1.56</t>
+  </si>
+  <si>
+    <t>עדכונים בתדירות גבוהה</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>תמיכה במעבר לRTL</t>
+  </si>
+  <si>
+    <t>מודול CHAT מותקן</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FFE17365"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alysum</t>
+    </r>
+  </si>
+  <si>
+    <t>אחר</t>
+  </si>
+  <si>
+    <t>אפשר להוסיף לסליידר כמה לינקים למוצרים</t>
+  </si>
+  <si>
+    <t>כללית, מתאים לעיצוב שלי</t>
+  </si>
+  <si>
+    <t>חשיבות</t>
+  </si>
+  <si>
+    <t>טאבים לטבלת מידות שניתן לנהל ערכים עבורם</t>
+  </si>
+  <si>
+    <t>עיצוב בעמוד אחד, או לראות איך נראה עם עמוד אחד</t>
+  </si>
+  <si>
+    <t>sellya</t>
+  </si>
+  <si>
+    <t>לא אהבתי את העיצוב, יש מסגרת חיצונית</t>
+  </si>
+  <si>
+    <t>אתר חדש - אביגיל</t>
+  </si>
+  <si>
+    <t>כללי - להתחיל מהאדום</t>
+  </si>
+  <si>
+    <t>כללי - להשתמש בפונט "אלף"</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - להשתמש בסליידר רחב, אולי אפילו על מסך שלם.</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - עליון - אודות - מלל חופשי</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - עליון - צור קשר</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - תחתון - ניוז לטר</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - תחתון - קישורים לרשתות חברתיות</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - עליון - פיד של פייסבוק, כולל אפשרות לביצוע לייק</t>
+  </si>
+  <si>
+    <t>כללי - לטעון את הקונטנט ואת התמונות לאתר החדש</t>
+  </si>
+  <si>
+    <t>אתר חדש</t>
+  </si>
+  <si>
+    <t>לעדכן מטבע כך שהMASK שלו יהיה מתאים לשח  - מיקום הסימון ו. במקום ,</t>
+  </si>
+  <si>
+    <t>קטגוריה - להוסיף באנר לקטגוריה
+- צריך להוסיף STATIC BANNER ולקשר לקטגוריה.
+- צריך להגדיר בקטגוריה שמראים את הבאנר ולא את הילדים</t>
+  </si>
+  <si>
+    <t>קטגוריה - בצד שמאל לנקות ולהשאיר רק קטגוריה
+- הצילום הוא CAMERA SLIDE SHOW לבטל מהמודול
+- שאר הפריטים להוריד דרך POSITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קטגוריה - לקשר לבנות את כל המוצרים (כמו היום), ולא להציג לינקים לתתי הקטגוריה
+- קישור דרך הפריטים.
+- לא להציג תתי קטגוריות - מעדכנים במודול הכללי - קטגוריה </t>
+  </si>
+  <si>
+    <t>כללי - לבטל COMPARE
+- דרך מסך prefrences - products לדרוך כמות מוצרים להשוואה ל0</t>
+  </si>
+  <si>
+    <t>כללי - באינדיקציות על התמונות להחליף כך שיהיה צורה של דגלון במקום 
+- דרך הקינפוג של הTHEME, תחת STICKERS</t>
+  </si>
+  <si>
+    <t>להפעיל ONE PAGE CHECKOUT , נמצא ב Preferences  &gt; Orders</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - מתחת לסליידר, פס עם שלושה באנרים
+- לבטל את שאר האובייקטים, להשתדל לבצע דרך המודולים עצמם עי ביטול האובייקטים המקושרים למיקום
+- את התמונות של הפריטים לבטל דרך הסרת המודול Product slider for each category, מHomepage content</t>
+  </si>
+  <si>
+    <t>כללי  - להוסיף באנר של משלוחים חינם.</t>
+  </si>
+  <si>
+    <t>כללי - להוסיף "רכישה בטוחה בשוקולדה"</t>
+  </si>
+  <si>
+    <t>כללי - בMEGAMENU להשתמש כרגע בפשוט, אפשר לשכלל ולהוסיף מתחת לבנות את התמונות של הקטגוריות במקום המלל
+לעדכן ערכים במניו העליון
+- צריך לבחור בתפריט שהערכים יהיו אחד מתחת לשני.</t>
+  </si>
+  <si>
+    <t>להוסיף זום</t>
+  </si>
+  <si>
+    <t>קטגוריה - לבטל QUICK VIEW, וכן את שאר מה שקורא כאשר עוברים על התמונה של המוצר:
+- כדי לבטל את כל מה שמתחרש כאשר עוברים על הצילום של המוצר, צריך דרך המודול של הTHEME, להוסיף לCSS בטאב האחרון - 
+#product_list .hover_fly{display:none;}</t>
+  </si>
+  <si>
+    <t>קטגוריה - להציג מוצרים כGRID ולבטל אופציה לבחור הצגה בשורות
+- צריך להוסיף לCUSTOM CSS את הקוד הבא:
+.sortPagiBar .viewmode{display:none;}</t>
+  </si>
+  <si>
+    <t>מוצר - להציג טבלת מידות + איור בטאב נפרד
+- צריך לייצר IMG שכולל את הטבלה והשרטוט. ולהציג אותו במוצר דרך המודול "Product Extra Tabs", ולחבר למוצר עצמו לפי הקוד מוצר או לקטגוריה. לנסות לקשר לקטגוריה ואז לדרוס למוצרים ספציפיים.
+הROOT של התמונות נמצא ב:img\cms\</t>
+  </si>
+  <si>
+    <t>כללי - לבטל WHISH LIST
+- צריך לבטל את המודול WHISHLIST מרשימת המודולים (UNINSTALL)</t>
+  </si>
+  <si>
+    <t>עמוד ראשי - חלק תחתון - עליון - לבטל RECENT ARTICLES
+- ב positions צריך לבטל את מודול Blog Module - Recent articles</t>
+  </si>
+  <si>
+    <t>כללי - קישור לחשבון פייסבוק, כך שאפשר יהיה לבצע לייק + לראות פיידים אחרונים
+- צריך בהתחלה ליצור שם משתמש באנגלית לדף הפייסבוק. בוצע. יש להזין במודול של פייסבוק - shokolada.kids
+צריך לעדכן גובה ל 205, לסמן שלוש שאלות כX, לסמן 10 CONN, לסמן LOCALE = HEBREW</t>
+  </si>
+  <si>
+    <t>מוצר - להשאיר את המוצרים המקושרים מימין, אבל להוריד את מוצרים באותה קטגוריה למטה.
+- כדי לבטל מוצרים באותה קטגוריה, צריך לבטל מודול כללי - Products Category</t>
+  </si>
+  <si>
+    <t>מוצר/קטגוריה - לבדוק איך התצוגה כאשר יש הנחה. אפשר לקנפג ולהציג רק חלק מהנתונים.</t>
+  </si>
+  <si>
+    <t>מוצר - להשאיר כותרת כאשר OUT OF STOCK אבל לא להציג כמה מוצרים נשאר:
+- ב Preferences  &gt; Products לבטל אופציה Display available quantities</t>
+  </si>
+  <si>
+    <t>מוצר - להחליט מה לעשות עם ה COMMENTS TAB</t>
+  </si>
+  <si>
+    <t>מוצר - לקבל החלטה האם להציג את העץ קטגוריות - צריך לפתוח עוד טור במוצר - יש שם עוד דברים להציג</t>
+  </si>
+  <si>
+    <t>מוצר - להשאיר את התצוגה של OUT OF STOCK, אבל לבטל את ONLINE ONLY
+- לא צריך לתקן כלום. אם לא מסמנים שום מוצר כ ONLINE זה לא יוצג למסך.
+- בשביל OUTOFSTOCK צריך להזין שאין כמות</t>
+  </si>
+  <si>
+    <t>מוצר - לבטל את הטאב של תגובות משתמשים
+- לבטל את מודול Product Comments אחרת תמשיך להופיע הכותרת "אין סקירות משתמש"
+- אם עדיין מופיע, - לבצע דרך ביטול המודול מהPOSITIONS  - תחת Tabs on product page</t>
+  </si>
+  <si>
+    <t>מוצר - לקנפג התנהגות כאשר המוצר נגמר, איך מוצג כאשר חלק מהגדלים נגמרו וחלק נשארו</t>
+  </si>
+  <si>
+    <t>להזיז את SOCIEL שיהיה מתחת לתיאור המוצר, כמו בעיצוב האפור + לקנפג שיראה יפה, LIKE מהיר</t>
+  </si>
+  <si>
+    <t>מוצר - לבדוק עם אביגיל - האם רלוונטי להציג את המוצרים המקושרים לצד המוצר, לעומת מוצרים מאותה הקטגוריה</t>
+  </si>
+  <si>
+    <t>קטגוריה - לבטל את SORT BY
+צריך להוסיף לCUSTOM CSS את :
+#center_column .sortPagiBar.sortPagiBarBottom{display:none;} 
+#center_column .sortPagiBar{display:none;} 
+נשאר לבטל את הקו הכפול בשורה העליונה - להתיעץ עם אביגיל איך לעצב+ חלק תחתון
+(במקור היא רצתה בחלק העליון  - לעביר את הקו המפריד כך שיהיה מתחת לבאנר)</t>
+  </si>
+  <si>
+    <t>מוצר - לייצר לכל מוצר RELATED עבורו ולהציג בדף המוצר.
+- כדי לקשר בין המוצרים, צריך לעדכן TAB בשם RELATED במוצר עצמו, לחילופין אפשר לנהל TAG ולקנפג את המודול עצמו לחפש מקושרים אוטומטית לפי TAG.
+- הרשימה תופיע אוט' בצד המוצר (Product secondary column). המודול כבר מוקם שם
+- צריך לקנפג במודול של  Related products בחלק התחתון (סליידר) שיוצגו 4</t>
+  </si>
+  <si>
+    <t>כללי - בחיפוש יש קו עבה בצד ימין</t>
+  </si>
+  <si>
+    <t>תרגום לעברית</t>
+  </si>
+  <si>
+    <t>כללי - לבטל ב"עמודים אחרים" את החלוקה לשני טורים.
+- לבצע דרך הTHEME EDITOR תחת Other pages layout:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יישום של הפונט גם בחלקים אחרים בדף:
+מגהמניו - דרך ה THEME EDITOR, תחת MENU
+חיפוש - </t>
+  </si>
+  <si>
+    <t>כללי - RTL
+- הייצרן של הTHEME שלח קובץ CSS שצריך להחליף איתו את הRTL.CSS הקיים . בשאלה ספציפית הוא אמר שזה מספיק בשביל כל הRTL + שאני אפנה אליו אם יהיו בעיות - לבדוק את זה
+מיקום - /themes/transformer/css/rtl.css
+בעיות עם RTL:
+- הFOOTER - שני החלקים - לא מיושרים לימין. - תוקן
+- בקטגוריה המוצרים לא מיושרים לימין - לא יתוקן
+- המחיר של המוצר לא מוצמד לימין - !!!! פתוח !!!
+- במוצר, ה+- של הכמות צמודים לכותרת, הפוך מאשר באנגלית וזה לא נעים בעין - תוקן
+- ישור של הלינקים העליונים - ברוך הבא, התחברות וכו' - !!! פתוח !!!
+הוסיף עוד כמה שורות לRTL.CSS, לא עזר לגמרי שלחתי לו מייל</t>
+  </si>
+  <si>
+    <t>כללי - לקנפג צבעוניות של הכותרת עליונה / תחתונה</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,8 +1599,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF504D4D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FFE17365"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,6 +1670,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC8C7C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1754,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1442,6 +1814,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1758,11 +2137,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="19" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2108,26 +2487,28 @@
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1">
-      <c r="A29" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>236</v>
+      <c r="A29" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="4" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -2209,10 +2590,10 @@
     </row>
     <row r="37" spans="1:5" hidden="1">
       <c r="A37" s="4" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2538,12 +2919,12 @@
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="28.5" hidden="1">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -2592,22 +2973,24 @@
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" hidden="1">
+    <row r="70" spans="1:5" ht="28.5" hidden="1">
       <c r="A70" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E70" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="85.5">
+    <row r="71" spans="1:5" ht="85.5" hidden="1">
       <c r="A71" s="4" t="s">
         <v>319</v>
       </c>
@@ -2666,7 +3049,7 @@
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="28.5">
+    <row r="76" spans="1:5" ht="28.5" hidden="1">
       <c r="A76" s="4" t="s">
         <v>271</v>
       </c>
@@ -2703,7 +3086,7 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" s="4" t="s">
         <v>271</v>
       </c>
@@ -2773,7 +3156,7 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" ht="42.75">
+    <row r="85" spans="1:5" ht="42.75" hidden="1">
       <c r="A85" s="4" t="s">
         <v>287</v>
       </c>
@@ -2799,7 +3182,7 @@
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="28.5">
+    <row r="87" spans="1:5" ht="28.5" hidden="1">
       <c r="A87" s="4" t="s">
         <v>240</v>
       </c>
@@ -2816,10 +3199,10 @@
     </row>
     <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -2851,7 +3234,7 @@
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="114">
+    <row r="91" spans="1:5" ht="114" hidden="1">
       <c r="A91" s="4" t="s">
         <v>240</v>
       </c>
@@ -2899,7 +3282,7 @@
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="114">
+    <row r="95" spans="1:5" ht="114" hidden="1">
       <c r="A95" s="4" t="s">
         <v>240</v>
       </c>
@@ -2936,7 +3319,7 @@
       </c>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="42.75">
+    <row r="98" spans="1:5" ht="42.75" hidden="1">
       <c r="A98" s="4" t="s">
         <v>240</v>
       </c>
@@ -2956,25 +3339,27 @@
         <v>240</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E99" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1">
+    <row r="100" spans="1:5" ht="28.5" hidden="1">
       <c r="A100" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="C100" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
@@ -2998,13 +3383,13 @@
     </row>
     <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>191</v>
+        <v>361</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C102" s="4">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
@@ -3026,13 +3411,13 @@
     </row>
     <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="C104" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
@@ -3171,10 +3556,10 @@
     </row>
     <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="4" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -3184,15 +3569,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="28.5" hidden="1">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="C116" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
@@ -3210,15 +3595,15 @@
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" ht="71.25" hidden="1">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C118" s="8">
-        <v>2</v>
+        <v>358</v>
+      </c>
+      <c r="C118" s="4">
+        <v>1</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
@@ -3236,15 +3621,15 @@
       </c>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="1:5" ht="28.5" hidden="1">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="4" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="C120" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
@@ -3266,15 +3651,15 @@
       </c>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" hidden="1">
-      <c r="A122" s="8" t="s">
-        <v>240</v>
+    <row r="122" spans="1:5" ht="28.5" hidden="1">
+      <c r="A122" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="C122" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
@@ -3327,12 +3712,14 @@
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" hidden="1">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
-        <v>232</v>
+      <c r="A126" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="C126" s="4">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
@@ -3361,15 +3748,15 @@
       </c>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="1:5" ht="28.5" hidden="1">
-      <c r="A129" s="8" t="s">
-        <v>258</v>
+    <row r="129" spans="1:5" hidden="1">
+      <c r="A129" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C129" s="4">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
@@ -3499,13 +3886,13 @@
     </row>
     <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C139" s="4">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
@@ -3624,10 +4011,10 @@
         <v>240</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="C149" s="4">
-        <v>99</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
@@ -3636,13 +4023,13 @@
     </row>
     <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="4" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="C150" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
@@ -3661,12 +4048,14 @@
       <c r="E151" s="23"/>
     </row>
     <row r="152" spans="1:5" hidden="1">
-      <c r="A152" s="4"/>
+      <c r="A152" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="B152" s="4" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="C152" s="4">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
@@ -3675,13 +4064,13 @@
     </row>
     <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="4" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="C153" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
@@ -3699,15 +4088,15 @@
       </c>
       <c r="E154" s="23"/>
     </row>
-    <row r="155" spans="1:5" hidden="1">
-      <c r="A155" s="8" t="s">
-        <v>300</v>
+    <row r="155" spans="1:5" ht="71.25" hidden="1">
+      <c r="A155" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C155" s="4">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="C155" s="8">
+        <v>2</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
@@ -3763,21 +4152,19 @@
       </c>
     </row>
     <row r="160" spans="1:5" hidden="1">
-      <c r="A160" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C160" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="4" t="s">
         <v>300</v>
       </c>
@@ -3851,15 +4238,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1">
-      <c r="A167" s="4" t="s">
-        <v>257</v>
+    <row r="167" spans="1:5" ht="28.5" hidden="1">
+      <c r="A167" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C167" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
@@ -3910,7 +4297,7 @@
       </c>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="1:5" ht="28.5">
+    <row r="172" spans="1:5" ht="28.5" hidden="1">
       <c r="A172" s="4" t="s">
         <v>300</v>
       </c>
@@ -4181,13 +4568,13 @@
     </row>
     <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C193" s="4">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
@@ -4273,12 +4660,14 @@
       </c>
     </row>
     <row r="200" spans="1:5" hidden="1">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4" t="s">
-        <v>156</v>
+      <c r="A200" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="C200" s="4">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
@@ -4363,7 +4752,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="28.5">
+    <row r="207" spans="1:5" ht="28.5" hidden="1">
       <c r="A207" s="4" t="s">
         <v>325</v>
       </c>
@@ -4456,7 +4845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="4" t="s">
         <v>300</v>
       </c>
@@ -4471,75 +4860,811 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="1:5" hidden="1">
+      <c r="A215" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="1" t="s">
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1">
+      <c r="A216" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="42.75">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="1:5" ht="42.75" hidden="1">
+      <c r="A217" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="4" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="57">
-      <c r="A218" s="1" t="s">
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="57" hidden="1">
+      <c r="A218" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1" t="s">
+      <c r="C218" s="4"/>
+      <c r="D218" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1">
+      <c r="A219" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="4" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1" t="s">
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1">
+      <c r="A220" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="239" spans="4:4">
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1">
+      <c r="A221" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1">
+      <c r="A222" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C222" s="4">
+        <v>3</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="28.5" hidden="1">
+      <c r="A223" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C223" s="4">
+        <v>3</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="28.5" hidden="1">
+      <c r="A224" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="4">
+        <v>3</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" hidden="1">
+      <c r="A225" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" hidden="1">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" s="4">
+        <v>3</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" hidden="1">
+      <c r="A227" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C227" s="4">
+        <v>3</v>
+      </c>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" hidden="1">
+      <c r="A228" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C228" s="4">
+        <v>3</v>
+      </c>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" hidden="1">
+      <c r="A229" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" s="4">
+        <v>99</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" hidden="1">
+      <c r="A230" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C230" s="4">
+        <v>99</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" hidden="1">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" s="4">
+        <v>99</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" hidden="1">
+      <c r="A232" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" hidden="1">
+      <c r="A233" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" hidden="1">
+      <c r="A234" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" hidden="1">
+      <c r="A235" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" hidden="1">
+      <c r="A236" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" hidden="1">
+      <c r="A237" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1">
+      <c r="A238" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="28.5" hidden="1">
+      <c r="A239" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="D239" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B240" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B242" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" ht="42.75">
+      <c r="A243" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B243" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B244" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B245" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" ht="28.5">
+      <c r="A246" s="4"/>
+      <c r="B246" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B247" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B248" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B249" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" ht="57">
+      <c r="A250" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B250" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" ht="42.75">
+      <c r="A251" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B251" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" ht="42.75">
+      <c r="A252" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B252" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" spans="1:5" ht="42.75">
+      <c r="A253" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B253" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" spans="1:5" ht="42.75">
+      <c r="A254" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B254" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" ht="42.75">
+      <c r="A256" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B256" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:5" ht="28.5">
+      <c r="A257" s="4"/>
+      <c r="B257" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" ht="28.5">
+      <c r="A258" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B258" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="1:5" ht="28.5">
+      <c r="A259" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B259" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="1:5" ht="28.5">
+      <c r="A260" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B260" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" ht="57">
+      <c r="A262" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B262" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B263" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267" spans="1:5" ht="57">
+      <c r="A267" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B267" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268" spans="1:5" ht="185.25">
+      <c r="A268" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B268" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" spans="1:5" ht="42.75">
+      <c r="A269" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" spans="1:5" ht="28.5">
+      <c r="A273" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="1:5" ht="42.75">
+      <c r="A275" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="71.25">
+      <c r="A277" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B277" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" spans="1:5" ht="85.5">
+      <c r="A279" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B279" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="4"/>
+      <c r="B280" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282" spans="1:5" ht="42.75">
+      <c r="A282" s="4"/>
+      <c r="B282" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283" spans="1:5" ht="28.5">
+      <c r="B283" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="B284" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E214">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
+  <autoFilter ref="A1:E260">
+    <filterColumn colId="0">
       <filters>
-        <filter val="אביגיל"/>
+        <filter val="אתר חדש - אביגיל"/>
       </filters>
     </filterColumn>
-    <sortState ref="A71:E214">
-      <sortCondition ref="C1:C214"/>
-    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1"/>
@@ -5223,4 +6348,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5">
+      <c r="A4" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="42.75">
+      <c r="A7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="42.75">
+      <c r="A8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5">
+      <c r="A13" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -18,14 +18,14 @@
     <sheet name="איתור טמפלט" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$291</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="463">
   <si>
     <t>SETUP</t>
   </si>
@@ -1547,19 +1547,85 @@
 חיפוש - </t>
   </si>
   <si>
+    <t>כללי - לקנפג צבעוניות של הכותרת עליונה / תחתונה</t>
+  </si>
+  <si>
+    <t>עמוד בית - בכותרת העליונה לבטל את "רישום". אפשר להרשם דרך הLOGIN</t>
+  </si>
+  <si>
+    <t>איפוס סיסמה</t>
+  </si>
+  <si>
+    <t>http://www.inmotionhosting.com/support/edu/prestashop-15/308-password-change-via-database</t>
+  </si>
+  <si>
+    <t>העלאה לשרת</t>
+  </si>
+  <si>
+    <t>תפעול - עדיקה</t>
+  </si>
+  <si>
+    <t>נשלח מייל עם ביצוע ההזמנה + אומרים שישלחו מייל ברגע שההזמנה תצא</t>
+  </si>
+  <si>
+    <t>רישום והזדהות:
+- בכותרת העליונה לבטל כפל התחברות/ רישום</t>
+  </si>
+  <si>
+    <t>תהליך רישום:
+- לבטל תואר מר/גברת
+- לבטל Receive special offers from our partners!
+- למה בסוף תהליך הרישום מתבקשים להזין כתובת ?
+- לבטל בדף "החשבון שלי" Welcome to your account. Here you can manage</t>
+  </si>
+  <si>
+    <t>סדר הפעולות:
+- יש לגבות את הDB, ולשחזר אותו בשרת.
+- יש להעלות את הקבצים עצמם דרך הFTP.
+- לפי הצורך לעדכן את settings.inc.php עם : שם DB, שם משתמש, סיסמה.
+- לפי הצורך לתת למשתמש האפליקטיבי הרשאה לDB החדש.
+- לפי הצורך צריך לעדכן  בטבלה ps_shop_url, כאשר הנתיב בשרת שונה מהנתיב במקומי (שם שרת + ספריית פרסטה)
+בעת עדכון:
+- גיבוי ושחזור DB, העברת קוד.
+- עדכון ps_shop_url, בכתובת האתר וספריית פרסטה</t>
+  </si>
+  <si>
+    <t>קופה - לשלב CUSTOMERS WHO BOUGHT THIS PRODUCT ALSO BOUGHT</t>
+  </si>
+  <si>
+    <t>קופה - לבטל את הכותרות משנה שמסבירות מה לבצע בכל פרק</t>
+  </si>
+  <si>
+    <t>קופה - לבטל את הכותרת שמסבירה איזה משלוח עדיף The best price and speed</t>
+  </si>
+  <si>
+    <t>קופה - בעלות של דואר שליחים כתוב באנגלית "TAX" - לבטל</t>
+  </si>
+  <si>
+    <t>מיקוד - לתקן MASK של מיקוד
+- לעדכן דרך הLOCAL-COUNTRIES</t>
+  </si>
+  <si>
+    <t>כללי - האם להוסיף קבוע טאב "משלוחים והחזרות" ? קיים בעדיקה, וקגם בקסטרו. מנגיש את המידע</t>
+  </si>
+  <si>
+    <t>כללי - במטבע לתקן שיהיה עם . במקום , כמוכ לבטל נקודה עשרונית. כמו"כ שהסימן יהיה משמאל.
+- לבצע דרך Localization  &gt; Currencies 
+לסמן שיהיה כמו E</t>
+  </si>
+  <si>
     <t>כללי - RTL
-- הייצרן של הTHEME שלח קובץ CSS שצריך להחליף איתו את הRTL.CSS הקיים . בשאלה ספציפית הוא אמר שזה מספיק בשביל כל הRTL + שאני אפנה אליו אם יהיו בעיות - לבדוק את זה
-מיקום - /themes/transformer/css/rtl.css
+- הייצרן של הTHEME שלח קבצי CSS שונים להחלפה:
+/themes/transformer/css/modules/blocksearch/blocksearch.css
+/modules/stthemeeditor/views/css/responsive.css
+/themes/transformer/css/rtl.css
 בעיות עם RTL:
-- הFOOTER - שני החלקים - לא מיושרים לימין. - תוקן
-- בקטגוריה המוצרים לא מיושרים לימין - לא יתוקן
-- המחיר של המוצר לא מוצמד לימין - !!!! פתוח !!!
-- במוצר, ה+- של הכמות צמודים לכותרת, הפוך מאשר באנגלית וזה לא נעים בעין - תוקן
-- ישור של הלינקים העליונים - ברוך הבא, התחברות וכו' - !!! פתוח !!!
-הוסיף עוד כמה שורות לRTL.CSS, לא עזר לגמרי שלחתי לו מייל</t>
-  </si>
-  <si>
-    <t>כללי - לקנפג צבעוניות של הכותרת עליונה / תחתונה</t>
+- בעמודים "נוספים" כמו צור קשר, המסלול לעמוד צמוד לימין אבל הפוך. - !!! פתוח!!!
+- ב CART השורה העליונה הפוכה + הכמות X מוצר לא מיושר טוב.
+- בתהליך הרישום, האינדיקציות של משלוח מייל לא מיושרות טוב, וכך הבקשה להזין 5 אותיות בסיסמה, בכתובת הבקשה להזין לפחות טלפון אחד
+- בתשלום, הRADIO BTN של בחירת אופן משלוח לא מיושר לימין
+- בקטגוריה, יש שורות לא מלאות, אלא עם מוצר אחד בלבד
+- ה ZOOM נפתח בצד ימין ולא בשמאל</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1678,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1685,6 +1751,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1754,7 +1826,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1821,6 +1893,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2136,12 +2214,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B285" sqref="B285"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2169,7 +2246,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" hidden="1">
+    <row r="2" spans="1:5" ht="42.75">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2259,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="57" hidden="1">
+    <row r="3" spans="1:5" ht="57">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2195,7 +2272,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="28.5" hidden="1">
+    <row r="4" spans="1:5" ht="28.5">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2285,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5" hidden="1">
+    <row r="5" spans="1:5" ht="28.5">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2298,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28.5" hidden="1">
+    <row r="6" spans="1:5" ht="28.5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2234,7 +2311,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="28.5" hidden="1">
+    <row r="7" spans="1:5" ht="28.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2324,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="28.5" hidden="1">
+    <row r="8" spans="1:5" ht="28.5">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2337,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5" hidden="1">
+    <row r="9" spans="1:5" ht="28.5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -2271,7 +2348,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="42.75" hidden="1">
+    <row r="10" spans="1:5" ht="42.75">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
@@ -2282,7 +2359,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="28.5" hidden="1">
+    <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -2293,7 +2370,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="28.5" hidden="1">
+    <row r="12" spans="1:5" ht="28.5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>30</v>
@@ -2304,7 +2381,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
@@ -2315,7 +2392,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
@@ -2326,7 +2403,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -2337,7 +2414,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -2348,7 +2425,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -2359,7 +2436,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" hidden="1">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>36</v>
@@ -2370,7 +2447,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>37</v>
@@ -2381,7 +2458,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>96</v>
@@ -2394,7 +2471,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>39</v>
@@ -2405,7 +2482,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -2416,7 +2493,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>41</v>
@@ -2427,7 +2504,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="57" hidden="1">
+    <row r="24" spans="1:5" ht="57">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2438,7 +2515,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="42.75" hidden="1">
+    <row r="25" spans="1:5" ht="42.75">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>43</v>
@@ -2449,7 +2526,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>44</v>
@@ -2460,7 +2537,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
@@ -2471,7 +2548,7 @@
       </c>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>290</v>
       </c>
@@ -2486,7 +2563,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
         <v>300</v>
       </c>
@@ -2503,7 +2580,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>260</v>
       </c>
@@ -2518,7 +2595,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>240</v>
       </c>
@@ -2533,7 +2610,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
@@ -2544,7 +2621,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" hidden="1">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>51</v>
@@ -2555,7 +2632,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" hidden="1">
+    <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>52</v>
@@ -2566,7 +2643,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" hidden="1">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>53</v>
@@ -2577,7 +2654,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" hidden="1">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
@@ -2588,7 +2665,7 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" hidden="1">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>311</v>
       </c>
@@ -2603,7 +2680,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -2614,7 +2691,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="28.5" hidden="1">
+    <row r="39" spans="1:5" ht="28.5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>57</v>
@@ -2625,7 +2702,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" hidden="1">
+    <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>58</v>
@@ -2636,7 +2713,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" hidden="1">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>59</v>
@@ -2647,7 +2724,7 @@
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" hidden="1">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>62</v>
@@ -2658,7 +2735,7 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" hidden="1">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>60</v>
@@ -2669,7 +2746,7 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" hidden="1">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -2680,7 +2757,7 @@
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" hidden="1">
+    <row r="45" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>63</v>
@@ -2691,7 +2768,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" hidden="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>64</v>
@@ -2702,7 +2779,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" hidden="1">
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>71</v>
@@ -2713,7 +2790,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" hidden="1">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>72</v>
@@ -2724,7 +2801,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" hidden="1">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>80</v>
@@ -2735,7 +2812,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="199.5" hidden="1">
+    <row r="50" spans="1:5" ht="199.5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>73</v>
@@ -2746,7 +2823,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" hidden="1">
+    <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>74</v>
@@ -2757,7 +2834,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" hidden="1">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>75</v>
@@ -2768,7 +2845,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" hidden="1">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>76</v>
@@ -2779,7 +2856,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" hidden="1">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>77</v>
@@ -2790,7 +2867,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" hidden="1">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>78</v>
@@ -2801,7 +2878,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" hidden="1">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>79</v>
@@ -2812,7 +2889,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" hidden="1">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>290</v>
       </c>
@@ -2827,7 +2904,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.5" hidden="1">
+    <row r="58" spans="1:5" ht="28.5">
       <c r="A58" s="4" t="s">
         <v>290</v>
       </c>
@@ -2842,7 +2919,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>82</v>
@@ -2853,7 +2930,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" hidden="1">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>84</v>
@@ -2864,7 +2941,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" hidden="1">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>86</v>
@@ -2875,7 +2952,7 @@
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" hidden="1">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>83</v>
@@ -2886,7 +2963,7 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" hidden="1">
+    <row r="63" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>85</v>
@@ -2897,7 +2974,7 @@
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" hidden="1">
+    <row r="64" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>87</v>
@@ -2908,7 +2985,7 @@
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>88</v>
@@ -2919,7 +2996,7 @@
       </c>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>361</v>
       </c>
@@ -2934,7 +3011,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.5" hidden="1">
+    <row r="67" spans="1:5" ht="28.5">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>292</v>
@@ -2947,7 +3024,7 @@
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="28.5" hidden="1">
+    <row r="68" spans="1:5" ht="28.5">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>293</v>
@@ -2960,7 +3037,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="28.5" hidden="1">
+    <row r="69" spans="1:5" ht="28.5">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>294</v>
@@ -2973,7 +3050,7 @@
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="28.5" hidden="1">
+    <row r="70" spans="1:5" ht="28.5">
       <c r="A70" s="4" t="s">
         <v>240</v>
       </c>
@@ -2990,7 +3067,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="85.5" hidden="1">
+    <row r="71" spans="1:5" ht="85.5">
       <c r="A71" s="4" t="s">
         <v>319</v>
       </c>
@@ -3005,7 +3082,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="57" hidden="1">
+    <row r="72" spans="1:5" ht="57">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>93</v>
@@ -3016,7 +3093,7 @@
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" hidden="1">
+    <row r="73" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>94</v>
@@ -3027,7 +3104,7 @@
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" hidden="1">
+    <row r="74" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>95</v>
@@ -3038,7 +3115,7 @@
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="42.75" hidden="1">
+    <row r="75" spans="1:5" ht="42.75">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
         <v>98</v>
@@ -3049,7 +3126,7 @@
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="28.5" hidden="1">
+    <row r="76" spans="1:5" ht="28.5">
       <c r="A76" s="4" t="s">
         <v>271</v>
       </c>
@@ -3064,7 +3141,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1">
+    <row r="77" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>97</v>
@@ -3075,7 +3152,7 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" hidden="1">
+    <row r="78" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>99</v>
@@ -3086,7 +3163,7 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" hidden="1">
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>271</v>
       </c>
@@ -3101,7 +3178,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="42.75" hidden="1">
+    <row r="80" spans="1:5" ht="42.75">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>101</v>
@@ -3112,7 +3189,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" hidden="1">
+    <row r="81" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>102</v>
@@ -3123,7 +3200,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5" hidden="1">
+    <row r="82" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>103</v>
@@ -3134,7 +3211,7 @@
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" hidden="1">
+    <row r="83" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>104</v>
@@ -3145,7 +3222,7 @@
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" hidden="1">
+    <row r="84" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>105</v>
@@ -3156,7 +3233,7 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" ht="42.75" hidden="1">
+    <row r="85" spans="1:5" ht="42.75">
       <c r="A85" s="4" t="s">
         <v>287</v>
       </c>
@@ -3171,7 +3248,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1">
+    <row r="86" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>107</v>
@@ -3182,7 +3259,7 @@
       </c>
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="1:5" ht="28.5" hidden="1">
+    <row r="87" spans="1:5" ht="28.5">
       <c r="A87" s="4" t="s">
         <v>240</v>
       </c>
@@ -3197,7 +3274,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1">
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>361</v>
       </c>
@@ -3212,7 +3289,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1">
+    <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>110</v>
@@ -3223,7 +3300,7 @@
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" hidden="1">
+    <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -3234,7 +3311,7 @@
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="114" hidden="1">
+    <row r="91" spans="1:5" ht="114">
       <c r="A91" s="4" t="s">
         <v>240</v>
       </c>
@@ -3249,7 +3326,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1">
+    <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>113</v>
@@ -3260,7 +3337,7 @@
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5" hidden="1">
+    <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>114</v>
@@ -3271,7 +3348,7 @@
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" hidden="1">
+    <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>115</v>
@@ -3282,7 +3359,7 @@
       </c>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="1:5" ht="114" hidden="1">
+    <row r="95" spans="1:5" ht="114">
       <c r="A95" s="4" t="s">
         <v>240</v>
       </c>
@@ -3297,7 +3374,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1">
+    <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>117</v>
@@ -3308,7 +3385,7 @@
       </c>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" hidden="1">
+    <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>118</v>
@@ -3319,7 +3396,7 @@
       </c>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" ht="42.75" hidden="1">
+    <row r="98" spans="1:5" ht="42.75">
       <c r="A98" s="4" t="s">
         <v>240</v>
       </c>
@@ -3334,7 +3411,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1">
+    <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
         <v>240</v>
       </c>
@@ -3351,7 +3428,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.5" hidden="1">
+    <row r="100" spans="1:5" ht="28.5">
       <c r="A100" s="4" t="s">
         <v>361</v>
       </c>
@@ -3366,7 +3443,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1">
+    <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>108</v>
@@ -3381,7 +3458,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1">
+    <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
         <v>361</v>
       </c>
@@ -3396,7 +3473,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="28.5" hidden="1">
+    <row r="103" spans="1:5" ht="28.5">
       <c r="A103" s="4"/>
       <c r="B103" s="8" t="s">
         <v>299</v>
@@ -3409,7 +3486,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1">
+    <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
         <v>361</v>
       </c>
@@ -3424,7 +3501,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1">
+    <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>171</v>
@@ -3435,7 +3512,7 @@
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" hidden="1">
+    <row r="106" spans="1:5">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>172</v>
@@ -3446,7 +3523,7 @@
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" hidden="1">
+    <row r="107" spans="1:5">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>173</v>
@@ -3457,7 +3534,7 @@
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" hidden="1">
+    <row r="108" spans="1:5">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>182</v>
@@ -3468,7 +3545,7 @@
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" hidden="1">
+    <row r="109" spans="1:5">
       <c r="A109" s="4"/>
       <c r="B109" s="8" t="s">
         <v>202</v>
@@ -3481,7 +3558,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1">
+    <row r="110" spans="1:5">
       <c r="A110" s="4" t="s">
         <v>264</v>
       </c>
@@ -3496,7 +3573,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1">
+    <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
         <v>264</v>
       </c>
@@ -3511,7 +3588,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="28.5" hidden="1">
+    <row r="112" spans="1:5" ht="28.5">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
         <v>211</v>
@@ -3524,7 +3601,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1">
+    <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
         <v>264</v>
       </c>
@@ -3539,7 +3616,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1">
+    <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
         <v>264</v>
       </c>
@@ -3554,7 +3631,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1">
+    <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
         <v>361</v>
       </c>
@@ -3569,7 +3646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1">
+    <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
         <v>361</v>
       </c>
@@ -3584,7 +3661,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1">
+    <row r="117" spans="1:5">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>188</v>
@@ -3595,7 +3672,7 @@
       </c>
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="1:5" hidden="1">
+    <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
         <v>361</v>
       </c>
@@ -3610,7 +3687,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1">
+    <row r="119" spans="1:5">
       <c r="A119" s="4"/>
       <c r="B119" s="17" t="s">
         <v>190</v>
@@ -3621,7 +3698,7 @@
       </c>
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="1:5" hidden="1">
+    <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
         <v>361</v>
       </c>
@@ -3636,7 +3713,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1">
+    <row r="121" spans="1:5">
       <c r="A121" s="4" t="s">
         <v>300</v>
       </c>
@@ -3651,7 +3728,7 @@
       </c>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" ht="28.5" hidden="1">
+    <row r="122" spans="1:5" ht="28.5">
       <c r="A122" s="4" t="s">
         <v>361</v>
       </c>
@@ -3666,7 +3743,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="28.5" hidden="1">
+    <row r="123" spans="1:5" ht="28.5">
       <c r="A123" s="4" t="s">
         <v>229</v>
       </c>
@@ -3681,7 +3758,7 @@
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="28.5" hidden="1">
+    <row r="124" spans="1:5" ht="28.5">
       <c r="A124" s="8" t="s">
         <v>261</v>
       </c>
@@ -3696,7 +3773,7 @@
       </c>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5" hidden="1">
+    <row r="125" spans="1:5">
       <c r="A125" s="8" t="s">
         <v>258</v>
       </c>
@@ -3711,7 +3788,7 @@
       </c>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="1:5" hidden="1">
+    <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>240</v>
       </c>
@@ -3726,7 +3803,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1">
+    <row r="127" spans="1:5">
       <c r="A127" s="23"/>
       <c r="B127" s="24" t="s">
         <v>197</v>
@@ -3737,7 +3814,7 @@
       </c>
       <c r="E127" s="23"/>
     </row>
-    <row r="128" spans="1:5" hidden="1">
+    <row r="128" spans="1:5">
       <c r="A128" s="4"/>
       <c r="B128" s="17" t="s">
         <v>198</v>
@@ -3748,7 +3825,7 @@
       </c>
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="1:5" hidden="1">
+    <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
         <v>318</v>
       </c>
@@ -3763,7 +3840,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1">
+    <row r="130" spans="1:5">
       <c r="A130" s="23"/>
       <c r="B130" s="24" t="s">
         <v>199</v>
@@ -3776,7 +3853,7 @@
       </c>
       <c r="E130" s="23"/>
     </row>
-    <row r="131" spans="1:5" ht="30" hidden="1">
+    <row r="131" spans="1:5" ht="30">
       <c r="A131" s="4"/>
       <c r="B131" s="18" t="s">
         <v>200</v>
@@ -3787,7 +3864,7 @@
       </c>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="1:5" ht="28.5" hidden="1">
+    <row r="132" spans="1:5" ht="28.5">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>218</v>
@@ -3800,7 +3877,7 @@
       </c>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="1:5" hidden="1">
+    <row r="133" spans="1:5">
       <c r="A133" s="23"/>
       <c r="B133" s="24" t="s">
         <v>201</v>
@@ -3813,7 +3890,7 @@
       </c>
       <c r="E133" s="23"/>
     </row>
-    <row r="134" spans="1:5" hidden="1">
+    <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
         <v>204</v>
       </c>
@@ -3826,7 +3903,7 @@
       </c>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="1:5" hidden="1">
+    <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
         <v>204</v>
       </c>
@@ -3839,7 +3916,7 @@
       </c>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="1:5" hidden="1">
+    <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
         <v>240</v>
       </c>
@@ -3856,7 +3933,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1">
+    <row r="137" spans="1:5">
       <c r="A137" s="23"/>
       <c r="B137" s="23" t="s">
         <v>207</v>
@@ -3867,7 +3944,7 @@
       </c>
       <c r="E137" s="23"/>
     </row>
-    <row r="138" spans="1:5" hidden="1">
+    <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
         <v>240</v>
       </c>
@@ -3884,7 +3961,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1">
+    <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
         <v>240</v>
       </c>
@@ -3899,7 +3976,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1">
+    <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
         <v>240</v>
       </c>
@@ -3914,7 +3991,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.5" hidden="1">
+    <row r="141" spans="1:5" ht="28.5">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>38</v>
@@ -3925,7 +4002,7 @@
       </c>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:5" ht="28.5" hidden="1">
+    <row r="142" spans="1:5" ht="28.5">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>46</v>
@@ -3936,7 +4013,7 @@
       </c>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5" hidden="1">
+    <row r="143" spans="1:5">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>47</v>
@@ -3947,7 +4024,7 @@
       </c>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5" ht="28.5" hidden="1">
+    <row r="144" spans="1:5" ht="28.5">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>48</v>
@@ -3958,7 +4035,7 @@
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" hidden="1">
+    <row r="145" spans="1:5">
       <c r="A145" s="23" t="s">
         <v>231</v>
       </c>
@@ -3971,7 +4048,7 @@
       </c>
       <c r="E145" s="23"/>
     </row>
-    <row r="146" spans="1:5" hidden="1">
+    <row r="146" spans="1:5">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>49</v>
@@ -3982,7 +4059,7 @@
       </c>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5" hidden="1">
+    <row r="147" spans="1:5">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>55</v>
@@ -3995,7 +4072,7 @@
       </c>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5" hidden="1">
+    <row r="148" spans="1:5">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>81</v>
@@ -4006,7 +4083,7 @@
       </c>
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="1:5" hidden="1">
+    <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
         <v>240</v>
       </c>
@@ -4021,7 +4098,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1">
+    <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
         <v>229</v>
       </c>
@@ -4036,7 +4113,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1">
+    <row r="151" spans="1:5">
       <c r="A151" s="23"/>
       <c r="B151" s="23" t="s">
         <v>220</v>
@@ -4047,7 +4124,7 @@
       </c>
       <c r="E151" s="23"/>
     </row>
-    <row r="152" spans="1:5" hidden="1">
+    <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
         <v>307</v>
       </c>
@@ -4062,7 +4139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1">
+    <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
         <v>240</v>
       </c>
@@ -4077,7 +4154,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1">
+    <row r="154" spans="1:5">
       <c r="A154" s="23"/>
       <c r="B154" s="23" t="s">
         <v>226</v>
@@ -4088,7 +4165,7 @@
       </c>
       <c r="E154" s="23"/>
     </row>
-    <row r="155" spans="1:5" ht="71.25" hidden="1">
+    <row r="155" spans="1:5" ht="71.25">
       <c r="A155" s="4" t="s">
         <v>295</v>
       </c>
@@ -4103,7 +4180,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1">
+    <row r="156" spans="1:5">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
         <v>91</v>
@@ -4114,7 +4191,7 @@
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" hidden="1">
+    <row r="157" spans="1:5">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
         <v>92</v>
@@ -4125,7 +4202,7 @@
       </c>
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="1:5" hidden="1">
+    <row r="158" spans="1:5">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
         <v>116</v>
@@ -4138,7 +4215,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="28.5" hidden="1">
+    <row r="159" spans="1:5" ht="28.5">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
         <v>119</v>
@@ -4151,7 +4228,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1">
+    <row r="160" spans="1:5">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
         <v>232</v>
@@ -4164,7 +4241,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1">
+    <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
         <v>300</v>
       </c>
@@ -4179,7 +4256,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1">
+    <row r="162" spans="1:5">
       <c r="A162" s="4"/>
       <c r="B162" s="14" t="s">
         <v>158</v>
@@ -4190,7 +4267,7 @@
       </c>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5" hidden="1">
+    <row r="163" spans="1:5">
       <c r="A163" s="4"/>
       <c r="B163" s="8" t="s">
         <v>159</v>
@@ -4201,7 +4278,7 @@
       </c>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5" hidden="1">
+    <row r="164" spans="1:5">
       <c r="A164" s="4"/>
       <c r="B164" s="17" t="s">
         <v>162</v>
@@ -4212,7 +4289,7 @@
       </c>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5" hidden="1">
+    <row r="165" spans="1:5">
       <c r="A165" s="4"/>
       <c r="B165" s="17" t="s">
         <v>163</v>
@@ -4223,7 +4300,7 @@
       </c>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" hidden="1">
+    <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
         <v>300</v>
       </c>
@@ -4238,7 +4315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="28.5" hidden="1">
+    <row r="167" spans="1:5" ht="28.5">
       <c r="A167" s="8" t="s">
         <v>258</v>
       </c>
@@ -4253,7 +4330,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1">
+    <row r="168" spans="1:5">
       <c r="A168" s="4"/>
       <c r="B168" s="17" t="s">
         <v>194</v>
@@ -4264,7 +4341,7 @@
       </c>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5" hidden="1">
+    <row r="169" spans="1:5">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
         <v>184</v>
@@ -4275,7 +4352,7 @@
       </c>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5" hidden="1">
+    <row r="170" spans="1:5">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
         <v>185</v>
@@ -4286,7 +4363,7 @@
       </c>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" hidden="1">
+    <row r="171" spans="1:5">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
         <v>186</v>
@@ -4297,7 +4374,7 @@
       </c>
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="1:5" ht="28.5" hidden="1">
+    <row r="172" spans="1:5" ht="28.5">
       <c r="A172" s="4" t="s">
         <v>300</v>
       </c>
@@ -4312,7 +4389,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1">
+    <row r="173" spans="1:5">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
         <v>187</v>
@@ -4323,7 +4400,7 @@
       </c>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5" hidden="1">
+    <row r="174" spans="1:5">
       <c r="A174" s="4"/>
       <c r="B174" s="17" t="s">
         <v>189</v>
@@ -4334,7 +4411,7 @@
       </c>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" ht="28.5" hidden="1">
+    <row r="175" spans="1:5" ht="28.5">
       <c r="A175" s="4" t="s">
         <v>308</v>
       </c>
@@ -4347,7 +4424,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1">
+    <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
         <v>302</v>
       </c>
@@ -4362,7 +4439,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1">
+    <row r="177" spans="1:5">
       <c r="A177" s="4"/>
       <c r="B177" s="8" t="s">
         <v>193</v>
@@ -4373,7 +4450,7 @@
       </c>
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="1:5" ht="71.25" hidden="1">
+    <row r="178" spans="1:5" ht="71.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
         <v>195</v>
@@ -4386,7 +4463,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1">
+    <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
         <v>310</v>
       </c>
@@ -4399,7 +4476,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1">
+    <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
         <v>290</v>
       </c>
@@ -4412,7 +4489,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1">
+    <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
         <v>245</v>
       </c>
@@ -4425,7 +4502,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.5" hidden="1">
+    <row r="182" spans="1:5" ht="28.5">
       <c r="A182" s="24" t="s">
         <v>268</v>
       </c>
@@ -4438,7 +4515,7 @@
       </c>
       <c r="E182" s="23"/>
     </row>
-    <row r="183" spans="1:5" hidden="1">
+    <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
         <v>302</v>
       </c>
@@ -4451,7 +4528,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1">
+    <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
         <v>242</v>
       </c>
@@ -4464,7 +4541,7 @@
       </c>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" ht="57" hidden="1">
+    <row r="185" spans="1:5" ht="57">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
         <v>244</v>
@@ -4475,7 +4552,7 @@
       </c>
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="1:5" ht="28.5" hidden="1">
+    <row r="186" spans="1:5" ht="28.5">
       <c r="A186" s="4" t="s">
         <v>302</v>
       </c>
@@ -4488,7 +4565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1">
+    <row r="187" spans="1:5">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
         <v>248</v>
@@ -4499,7 +4576,7 @@
       </c>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5" hidden="1">
+    <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
         <v>246</v>
       </c>
@@ -4512,7 +4589,7 @@
       </c>
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="1:5" hidden="1">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>264</v>
       </c>
@@ -4527,7 +4604,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1">
+    <row r="190" spans="1:5">
       <c r="A190" s="8" t="s">
         <v>266</v>
       </c>
@@ -4540,7 +4617,7 @@
       </c>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5" hidden="1">
+    <row r="191" spans="1:5">
       <c r="A191" s="8" t="s">
         <v>240</v>
       </c>
@@ -4553,7 +4630,7 @@
       </c>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:5" hidden="1">
+    <row r="192" spans="1:5">
       <c r="A192" s="8" t="s">
         <v>271</v>
       </c>
@@ -4566,7 +4643,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1">
+    <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
         <v>251</v>
       </c>
@@ -4581,7 +4658,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1">
+    <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
         <v>302</v>
       </c>
@@ -4594,7 +4671,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1">
+    <row r="195" spans="1:5">
       <c r="A195" s="8" t="s">
         <v>287</v>
       </c>
@@ -4607,7 +4684,7 @@
       </c>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5" hidden="1">
+    <row r="196" spans="1:5">
       <c r="A196" s="8" t="s">
         <v>287</v>
       </c>
@@ -4620,7 +4697,7 @@
       </c>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5" hidden="1">
+    <row r="197" spans="1:5">
       <c r="A197" s="8" t="s">
         <v>287</v>
       </c>
@@ -4633,7 +4710,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="28.5" hidden="1">
+    <row r="198" spans="1:5" ht="28.5">
       <c r="A198" s="4" t="s">
         <v>281</v>
       </c>
@@ -4646,7 +4723,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1">
+    <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
         <v>246</v>
       </c>
@@ -4659,7 +4736,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1">
+    <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
         <v>240</v>
       </c>
@@ -4674,7 +4751,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1">
+    <row r="201" spans="1:5">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
         <v>314</v>
@@ -4687,7 +4764,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1">
+    <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
         <v>302</v>
       </c>
@@ -4700,7 +4777,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1">
+    <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
         <v>310</v>
       </c>
@@ -4713,7 +4790,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="28.5" hidden="1">
+    <row r="204" spans="1:5" ht="28.5">
       <c r="A204" s="4" t="s">
         <v>310</v>
       </c>
@@ -4726,7 +4803,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1">
+    <row r="205" spans="1:5">
       <c r="A205" s="4" t="s">
         <v>310</v>
       </c>
@@ -4739,7 +4816,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1">
+    <row r="206" spans="1:5">
       <c r="A206" s="4" t="s">
         <v>310</v>
       </c>
@@ -4752,7 +4829,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="28.5" hidden="1">
+    <row r="207" spans="1:5" ht="28.5">
       <c r="A207" s="4" t="s">
         <v>325</v>
       </c>
@@ -4767,7 +4844,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1">
+    <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
         <v>310</v>
       </c>
@@ -4780,7 +4857,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
         <v>328</v>
       </c>
@@ -4793,7 +4870,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
         <v>328</v>
       </c>
@@ -4806,7 +4883,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
         <v>328</v>
       </c>
@@ -4819,7 +4896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="4" t="s">
         <v>300</v>
       </c>
@@ -4832,7 +4909,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
         <v>300</v>
       </c>
@@ -4845,7 +4922,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1">
+    <row r="214" spans="1:5">
       <c r="A214" s="4" t="s">
         <v>300</v>
       </c>
@@ -4860,7 +4937,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
         <v>271</v>
       </c>
@@ -4873,7 +4950,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
         <v>287</v>
       </c>
@@ -4886,7 +4963,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="42.75" hidden="1">
+    <row r="217" spans="1:5" ht="42.75">
       <c r="A217" s="4" t="s">
         <v>287</v>
       </c>
@@ -4899,7 +4976,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="57" hidden="1">
+    <row r="218" spans="1:5" ht="57">
       <c r="A218" s="4" t="s">
         <v>287</v>
       </c>
@@ -4914,7 +4991,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="4" t="s">
         <v>302</v>
       </c>
@@ -4927,7 +5004,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1">
+    <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
         <v>300</v>
       </c>
@@ -4940,7 +5017,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
         <v>287</v>
       </c>
@@ -4953,7 +5030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1">
+    <row r="222" spans="1:5">
       <c r="A222" s="4" t="s">
         <v>240</v>
       </c>
@@ -4968,7 +5045,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="28.5" hidden="1">
+    <row r="223" spans="1:5" ht="28.5">
       <c r="A223" s="4" t="s">
         <v>240</v>
       </c>
@@ -4983,7 +5060,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="28.5" hidden="1">
+    <row r="224" spans="1:5" ht="28.5">
       <c r="A224" s="4" t="s">
         <v>240</v>
       </c>
@@ -4998,7 +5075,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1">
+    <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
         <v>240</v>
       </c>
@@ -5013,7 +5090,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1">
+    <row r="226" spans="1:5">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
         <v>216</v>
@@ -5026,7 +5103,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1">
+    <row r="227" spans="1:5">
       <c r="A227" s="4" t="s">
         <v>258</v>
       </c>
@@ -5041,7 +5118,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1">
+    <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
         <v>257</v>
       </c>
@@ -5056,7 +5133,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1">
+    <row r="229" spans="1:5">
       <c r="A229" s="4" t="s">
         <v>240</v>
       </c>
@@ -5071,7 +5148,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1">
+    <row r="230" spans="1:5">
       <c r="A230" s="4" t="s">
         <v>255</v>
       </c>
@@ -5086,7 +5163,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
         <v>156</v>
@@ -5099,7 +5176,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>363</v>
       </c>
@@ -5110,7 +5187,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>363</v>
       </c>
@@ -5121,7 +5198,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>302</v>
       </c>
@@ -5135,7 +5212,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>361</v>
       </c>
@@ -5143,7 +5220,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>300</v>
       </c>
@@ -5151,7 +5228,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1">
+    <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
         <v>369</v>
       </c>
@@ -5159,7 +5236,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1">
+    <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
         <v>371</v>
       </c>
@@ -5167,7 +5244,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="28.5" hidden="1">
+    <row r="239" spans="1:5" ht="28.5">
       <c r="A239" s="1" t="s">
         <v>373</v>
       </c>
@@ -5245,7 +5322,9 @@
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" ht="28.5">
-      <c r="A246" s="4"/>
+      <c r="A246" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B246" s="26" t="s">
         <v>427</v>
       </c>
@@ -5364,7 +5443,9 @@
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" ht="28.5">
-      <c r="A257" s="4"/>
+      <c r="A257" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B257" s="27" t="s">
         <v>429</v>
       </c>
@@ -5461,7 +5542,9 @@
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="4"/>
+      <c r="A266" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B266" s="4" t="s">
         <v>422</v>
       </c>
@@ -5480,12 +5563,12 @@
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="1:5" ht="185.25">
+    <row r="268" spans="1:5" ht="199.5">
       <c r="A268" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B268" s="17" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -5619,7 +5702,9 @@
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="4"/>
+      <c r="A280" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B280" s="17" t="s">
         <v>441</v>
       </c>
@@ -5628,7 +5713,9 @@
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="4"/>
+      <c r="A281" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B281" s="4" t="s">
         <v>442</v>
       </c>
@@ -5637,7 +5724,9 @@
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" ht="42.75">
-      <c r="A282" s="4"/>
+      <c r="A282" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="B282" s="17" t="s">
         <v>444</v>
       </c>
@@ -5646,31 +5735,144 @@
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" ht="28.5">
-      <c r="B283" s="1" t="s">
+      <c r="A283" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>443</v>
       </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="B284" s="1" t="s">
+      <c r="A284" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B285" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="E284" s="1" t="s">
-        <v>284</v>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286" spans="1:5" ht="15">
+      <c r="A286" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287" spans="1:5" ht="156.75">
+      <c r="A287" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="28.5">
+      <c r="A289" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B289" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="71.25">
+      <c r="A290" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B290" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="28.5">
+      <c r="A291" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B291" s="29" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="42.75">
+      <c r="B296" s="29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="B297" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E260">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="אתר חדש - אביגיל"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E291"/>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1"/>
+    <hyperlink ref="B286" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6252,7 +6454,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6281,7 +6483,7 @@
         <v>222</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -14,18 +14,17 @@
     <sheet name="קטגוריות" sheetId="5" r:id="rId5"/>
     <sheet name="צבעים" sheetId="6" r:id="rId6"/>
     <sheet name="עלות משלוח" sheetId="8" r:id="rId7"/>
-    <sheet name="דף דומיין" sheetId="9" r:id="rId8"/>
-    <sheet name="איתור טמפלט" sheetId="10" r:id="rId9"/>
+    <sheet name="לינקים" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$298</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="472">
   <si>
     <t>SETUP</t>
   </si>
@@ -1132,72 +1131,6 @@
     <t>להקליט מחדש, לבקש ממנו לדבר בקצב אחיד</t>
   </si>
   <si>
-    <t>מלל</t>
-  </si>
-  <si>
-    <t>ברוכים הבאים ל"שוקולדה", אתר למכירת בגדי ילדים מעוצבים, במחירים הוגנים.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בשוקולדה מוכרים ישירות לצרכן, ולכן שמחים למכור 2 שמלות מסתובבות ב99 ש"ח ! </t>
-  </si>
-  <si>
-    <t>לוגו</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">אנחנו מגייסים מימון דרך </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>הדסטרטס</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - בואו לתמוך בפרוייקט שלנו וגם לקדם את הצרכנות השפויה בישראל</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>האתר יעלה במהלך חודש מרץ ובינתיים אתם מוזמנים ל</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>דף הפייסבוק שלנו</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> לראות את הפריטים של העונה הקרובה</t>
-    </r>
-  </si>
-  <si>
     <t>בהתחלה המוזיקה מנגנת 2 שניות לבד.
 קצב המוזיקה הואץ ב 2.5%
 קצב הדיבור הואץ ב10%</t>
@@ -1287,92 +1220,6 @@
     <t>רועי הרשמון, רחלי</t>
   </si>
   <si>
-    <t>דף ראשי</t>
-  </si>
-  <si>
-    <t>באנרים שהם לינקים</t>
-  </si>
-  <si>
-    <t>דף מוצר</t>
-  </si>
-  <si>
-    <t>זום שמוצג מחוץ לתמונה</t>
-  </si>
-  <si>
-    <t>כללי</t>
-  </si>
-  <si>
-    <t>הכנה לצבעוניות לבנה/נקיה</t>
-  </si>
-  <si>
-    <t>מקום להוסיף באנר של "משלוחים חינם"</t>
-  </si>
-  <si>
-    <t>אפשרות להוסיף מיקום בולט לעזרה/צור קשר למעלה</t>
-  </si>
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>תמיכה ב 1.55/1.56</t>
-  </si>
-  <si>
-    <t>עדכונים בתדירות גבוהה</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>תמיכה במעבר לRTL</t>
-  </si>
-  <si>
-    <t>מודול CHAT מותקן</t>
-  </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="21"/>
-        <color rgb="FFE17365"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>Alysum</t>
-    </r>
-  </si>
-  <si>
-    <t>אחר</t>
-  </si>
-  <si>
-    <t>אפשר להוסיף לסליידר כמה לינקים למוצרים</t>
-  </si>
-  <si>
-    <t>כללית, מתאים לעיצוב שלי</t>
-  </si>
-  <si>
-    <t>חשיבות</t>
-  </si>
-  <si>
-    <t>טאבים לטבלת מידות שניתן לנהל ערכים עבורם</t>
-  </si>
-  <si>
-    <t>עיצוב בעמוד אחד, או לראות איך נראה עם עמוד אחד</t>
-  </si>
-  <si>
-    <t>sellya</t>
-  </si>
-  <si>
-    <t>לא אהבתי את העיצוב, יש מסגרת חיצונית</t>
-  </si>
-  <si>
     <t>אתר חדש - אביגיל</t>
   </si>
   <si>
@@ -1440,20 +1287,11 @@
 - את התמונות של הפריטים לבטל דרך הסרת המודול Product slider for each category, מHomepage content</t>
   </si>
   <si>
-    <t>כללי  - להוסיף באנר של משלוחים חינם.</t>
-  </si>
-  <si>
-    <t>כללי - להוסיף "רכישה בטוחה בשוקולדה"</t>
-  </si>
-  <si>
     <t>כללי - בMEGAMENU להשתמש כרגע בפשוט, אפשר לשכלל ולהוסיף מתחת לבנות את התמונות של הקטגוריות במקום המלל
 לעדכן ערכים במניו העליון
 - צריך לבחור בתפריט שהערכים יהיו אחד מתחת לשני.</t>
   </si>
   <si>
-    <t>להוסיף זום</t>
-  </si>
-  <si>
     <t>קטגוריה - לבטל QUICK VIEW, וכן את שאר מה שקורא כאשר עוברים על התמונה של המוצר:
 - כדי לבטל את כל מה שמתחרש כאשר עוברים על הצילום של המוצר, צריך דרך המודול של הTHEME, להוסיף לCSS בטאב האחרון - 
 #product_list .hover_fly{display:none;}</t>
@@ -1493,12 +1331,6 @@
 - ב Preferences  &gt; Products לבטל אופציה Display available quantities</t>
   </si>
   <si>
-    <t>מוצר - להחליט מה לעשות עם ה COMMENTS TAB</t>
-  </si>
-  <si>
-    <t>מוצר - לקבל החלטה האם להציג את העץ קטגוריות - צריך לפתוח עוד טור במוצר - יש שם עוד דברים להציג</t>
-  </si>
-  <si>
     <t>מוצר - להשאיר את התצוגה של OUT OF STOCK, אבל לבטל את ONLINE ONLY
 - לא צריך לתקן כלום. אם לא מסמנים שום מוצר כ ONLINE זה לא יוצג למסך.
 - בשביל OUTOFSTOCK צריך להזין שאין כמות</t>
@@ -1507,15 +1339,6 @@
     <t>מוצר - לבטל את הטאב של תגובות משתמשים
 - לבטל את מודול Product Comments אחרת תמשיך להופיע הכותרת "אין סקירות משתמש"
 - אם עדיין מופיע, - לבצע דרך ביטול המודול מהPOSITIONS  - תחת Tabs on product page</t>
-  </si>
-  <si>
-    <t>מוצר - לקנפג התנהגות כאשר המוצר נגמר, איך מוצג כאשר חלק מהגדלים נגמרו וחלק נשארו</t>
-  </si>
-  <si>
-    <t>להזיז את SOCIEL שיהיה מתחת לתיאור המוצר, כמו בעיצוב האפור + לקנפג שיראה יפה, LIKE מהיר</t>
-  </si>
-  <si>
-    <t>מוצר - לבדוק עם אביגיל - האם רלוונטי להציג את המוצרים המקושרים לצד המוצר, לעומת מוצרים מאותה הקטגוריה</t>
   </si>
   <si>
     <t>קטגוריה - לבטל את SORT BY
@@ -1526,12 +1349,6 @@
 (במקור היא רצתה בחלק העליון  - לעביר את הקו המפריד כך שיהיה מתחת לבאנר)</t>
   </si>
   <si>
-    <t>מוצר - לייצר לכל מוצר RELATED עבורו ולהציג בדף המוצר.
-- כדי לקשר בין המוצרים, צריך לעדכן TAB בשם RELATED במוצר עצמו, לחילופין אפשר לנהל TAG ולקנפג את המודול עצמו לחפש מקושרים אוטומטית לפי TAG.
-- הרשימה תופיע אוט' בצד המוצר (Product secondary column). המודול כבר מוקם שם
-- צריך לקנפג במודול של  Related products בחלק התחתון (סליידר) שיוצגו 4</t>
-  </si>
-  <si>
     <t>כללי - בחיפוש יש קו עבה בצד ימין</t>
   </si>
   <si>
@@ -1579,60 +1396,261 @@
 - לבטל בדף "החשבון שלי" Welcome to your account. Here you can manage</t>
   </si>
   <si>
+    <t>קופה - לשלב CUSTOMERS WHO BOUGHT THIS PRODUCT ALSO BOUGHT</t>
+  </si>
+  <si>
+    <t>קופה - לבטל את הכותרות משנה שמסבירות מה לבצע בכל פרק</t>
+  </si>
+  <si>
+    <t>קופה - לבטל את הכותרת שמסבירה איזה משלוח עדיף The best price and speed</t>
+  </si>
+  <si>
+    <t>קופה - בעלות של דואר שליחים כתוב באנגלית "TAX" - לבטל</t>
+  </si>
+  <si>
+    <t>מיקוד - לתקן MASK של מיקוד
+- לעדכן דרך הLOCAL-COUNTRIES</t>
+  </si>
+  <si>
+    <t>כללי - במטבע לתקן שיהיה עם . במקום , כמוכ לבטל נקודה עשרונית. כמו"כ שהסימן יהיה משמאל.
+- לבצע דרך Localization  &gt; Currencies 
+לסמן שיהיה כמו E</t>
+  </si>
+  <si>
+    <t>טאב קבוע "משלוחים והחזרות"  קיים בעדיקה, וקגם בקסטרו. מנגיש את המידע
+- בוצע, יש לערוך תוכן</t>
+  </si>
+  <si>
+    <t>מוצר - לקנפג התנהגות כאשר המוצר נגמר, איך מוצג כאשר חלק מהגדלים נגמרו וחלק נשארו
+- קונפג כך שלא מוצגים גדלים שאין עבורם כמות.
+- אם אין כמות בשום גודל - בקטגוריה מוצג "אזל מהמלאי", במוצר עצמו יש הודעה.</t>
+  </si>
+  <si>
+    <t>קינפוג רשתות חבריות:
+- לבצע דרך Social networking block
+להשאיר פייסבוק, יוטיוב(?) , אינסטגרם</t>
+  </si>
+  <si>
+    <t>לוודא שהחיפוש לפי מלל עובד. לא כ"כ עבד לי</t>
+  </si>
+  <si>
+    <t>לשפצר דף "צור קשר". להעיף כותרות מיותרות, לא ברור מה המשמעות של המקט/מוצר, לבטל בחירה של נושא</t>
+  </si>
+  <si>
+    <t>מיקום</t>
+  </si>
+  <si>
+    <t>ראש הדף משמאל</t>
+  </si>
+  <si>
+    <t>כותרת הקבוצה</t>
+  </si>
+  <si>
+    <t>כותרת לינק</t>
+  </si>
+  <si>
+    <t>צור קשר</t>
+  </si>
+  <si>
+    <t>משלוחים והחזרות</t>
+  </si>
+  <si>
+    <t>פוטר תחתון</t>
+  </si>
+  <si>
+    <t>מידע נוסף</t>
+  </si>
+  <si>
+    <t>תקנון שימוש באתר</t>
+  </si>
+  <si>
+    <t>הוראות שימוש באתר</t>
+  </si>
+  <si>
+    <t>תמיכה</t>
+  </si>
+  <si>
+    <t>לשכפל שוב את מה שמוצג למעלה</t>
+  </si>
+  <si>
+    <t>טבלת מידות</t>
+  </si>
+  <si>
+    <t>איך לקבל לינק לקטגוריה מסוימת ? איך זה עובד בCMS</t>
+  </si>
+  <si>
+    <t>כללי  - להוסיף באנר של משלוחים חינם.
+כדי להוסיף באנרים כמו אצל קסטרו צריך לשלב את הקוד שהייצרן שלח במייל בתוך header.tpl חשוב - הקוד מכיל HARD CODED את מספר הקבוצה. אם מקדמים קדימה צריך לעדכן בקוד</t>
+  </si>
+  <si>
+    <t>ניהול CMS - יש לעדכן את שמות הכותרות ולתרגם אותם לעברית
+- לבצע דרך העמוד CMS של פרסטה, לא דרך הTHEME עצמו</t>
+  </si>
+  <si>
+    <t>אחרי השדרוג - האם לעשות שימוש בקבצים שנשלחו בודדת ? שלחתי אליו שאלה
+- לעדכן רק קובץ ספציפי ששלח.</t>
+  </si>
+  <si>
+    <t>להוסיף זום
+- צריך לקנפג את הזום בBO הכללי של prestashop</t>
+  </si>
+  <si>
+    <t>צריך לבקש מאביגיל לעצב מדבקה לשימוש על הקופסא (במקום מיתוג) - "איזה כיף קנית בשוקולדה!"</t>
+  </si>
+  <si>
+    <t>לסגור לצורך אריזה:
+- אריזות קרטון
+- נייר קרפ
+- מדבקות לסגירת נייר הקרפ (במקום סרט).
+- אזיקון / אמצעי אחר לסימון שהמוצר חדש
+- גליונות מדבקות להדפסת הכתובת לקוח</t>
+  </si>
+  <si>
+    <t>לקשר PAYPAL כאמצעי תשלום</t>
+  </si>
+  <si>
+    <t>לתכנן עלייה לאוויר, פיילוט על תהליך קניה הזמנה וכו'. מול יניב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לשנות את האייקון של החצים בסליידר הראשי לנקי יותר.
+- כרגע הסרתי את החצים בכלל + שיניתי שלא יהיה רגיש למעבר של הHOOVER עליו.
+- בעבר שיניתי גם שסוג המעבר יהיה FADE בלבד
+מבוצע בקינפוג של הסליידר הספציפי
+</t>
+  </si>
+  <si>
+    <t>להצר את הפס העליון שיש בו LOGIN</t>
+  </si>
+  <si>
+    <t>לבטל את הקומפוננטה של החיפוש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מוצר - לייצר לכל מוצר RELATED עבורו ולהציג בדף המוצר.
+- כדי לקשר בין המוצרים, צריך לעדכן TAB בשם RELATED במוצר עצמו, לחילופין אפשר לנהל TAG ולקנפג את המודול עצמו לחפש מקושרים אוטומטית לפי TAG.
+- הרשימה תופיע אוט' בצד המוצר (Product secondary column). המודול כבר מוקם שם
+- צריך לקנפג במודול של  Related products בחלק התחתון (סליידר) שיוצגו 4
+- בינתיים הסרתי עי זה שקינפגתי שיופיעו 0 </t>
+  </si>
+  <si>
+    <t>דף מוצר - לבטל את הSECONDARY
+- דרך הקינפוג של הTHEME בTAB של הPRODUCT</t>
+  </si>
+  <si>
+    <t>כללי - להוסיף "רכישה בטוחה בשוקולדה"
+- לעדכן כתמונה, בצמוד לתמונה של אמצעי התשלום</t>
+  </si>
+  <si>
+    <t>ניהול IMAGE של טבלת מידות לכל שמלה.
+- צריך למדוד כל שמלה על כמה ילדות כדי לקבוע איזה שימלה מתאימה לאיזה גיל</t>
+  </si>
+  <si>
+    <t>להוסיף RELATED מתחת למוצר
+- צריך להוסיף בPOSITIONS את related products , במיקום displayFooterProduct</t>
+  </si>
+  <si>
+    <t>השוליים התרחבו והתוכן התרכז פנימה. לא ברור למה - 
+- שלחתי שאלה לספק</t>
+  </si>
+  <si>
+    <t>מוצר - לקבל החלטה האם להציג את העץ קטגוריות - צריך לפתוח עוד טור במוצר - יש שם עוד דברים להציג
+- כרגע לא מוצג - בוטל בקטגוריה כל הטור הימני עי ביטול SECONDARY ב עמוד PRODUCT</t>
+  </si>
+  <si>
+    <t>מוצר - לבדוק עם אביגיל - האם רלוונטי להציג את המוצרים המקושרים לצד המוצר, לעומת מוצרים מאותה הקטגוריה
+- מוצגים מקושרים מתחת למוצר, בין השאר כדי להפריד מול הFOOTER</t>
+  </si>
+  <si>
+    <t>באנר של משלוחים והזמנות חינם שיהיה חשוף מכל הדפים כמו עדיקא</t>
+  </si>
+  <si>
+    <t>לטעון אייקון לרשימת אמצעי התשלום + להוסיף "קנייה בטוחה בשוקולדה" ולייצר מזה IMAGE אחד
+- דרך העדכון של הTHEME בטאב הראשון למטה</t>
+  </si>
+  <si>
+    <t>לבדוק אם כדאי להשתמש בסליידר מתחלף שמציג שלושה באנרים, כך אפשר להציג "קונים 2 שמלות" ופעם אחרת "קונים 2 חצאיות". גם הפרסומת לקטגוריה מתחלפת.
+רשימת באנרים:
+-משלוחים והחזרות חינם
+- 2 פריטים מעוצבים ב99 שח. - "קונים 2 פריטים מעוצבים ומשלמים 99 ש"ח ! - ההנחה מתקבלת בקופה".
+- צבירת נקודות, כולל לחבר מביא חבר. - "חברי מועדון צוברים נקודות בכל קנייה"
+- פרסומת לקטגורית השמלות</t>
+  </si>
+  <si>
+    <t>להזיז את SOCIEL שיהיה מתחת לתיאור המוצר, כמו בעיצוב האפור + לקנפג שיראה יפה, LIKE מהיר
+- כדי לבצע Go to Modules &gt; Positions &gt; Click on the Transplant a module button.
+In that screen , select “Add this button” from Module dropdown and select “displayRightColumnProduct” from hook into dropdown and click on the Save button.</t>
+  </si>
+  <si>
+    <t>כללי - RTL
+בעיות עם RTL:
+- בתשלום, הRADIO BTN של בחירת אופן משלוח לא מיושר לימין
+- בקטגוריה, יש שורות לא מלאות, אלא עם מוצר אחד בלבד
+- במוצר, הSOCIAL מוצמד לשמאל, צריך שיהיה מימין מתחת להוסף מוצר</t>
+  </si>
+  <si>
+    <t>לבדוק פונט נוסף  - open sans heb - ביקשתי מהספק לטעון אותו.
+הוא הוסיף אותו, צריך לזכור שהוא לא מוסיף אותו לסטנדרט כלומר צריך לטעון אותו כל פעם מחדש</t>
+  </si>
+  <si>
+    <t>Admin sandbox
+url: http://test.sunnytoo.com/st
+login: helloleemj@gmail.com
+password: transformer</t>
+  </si>
+  <si>
+    <t>מנעול נוסף למחסן : 650 כולל מעמ ועבודה אצל דני מנעולן. 5320167</t>
+  </si>
+  <si>
+    <t>לבקש חוות דעת על הצילומים מהצלם הנוסף - דורון / צלמונע - 052-5402114</t>
+  </si>
+  <si>
     <t>סדר הפעולות:
 - יש לגבות את הDB, ולשחזר אותו בשרת.
 - יש להעלות את הקבצים עצמם דרך הFTP.
 - לפי הצורך לעדכן את settings.inc.php עם : שם DB, שם משתמש, סיסמה.
 - לפי הצורך לתת למשתמש האפליקטיבי הרשאה לDB החדש.
-- לפי הצורך צריך לעדכן  בטבלה ps_shop_url, כאשר הנתיב בשרת שונה מהנתיב במקומי (שם שרת + ספריית פרסטה)
+- צריך לעדכן  בטבלה ps_shop_url, שם שרת + ספריית פרסטה
 בעת עדכון:
-- גיבוי ושחזור DB, העברת קוד.
-- עדכון ps_shop_url, בכתובת האתר וספריית פרסטה</t>
-  </si>
-  <si>
-    <t>קופה - לשלב CUSTOMERS WHO BOUGHT THIS PRODUCT ALSO BOUGHT</t>
-  </si>
-  <si>
-    <t>קופה - לבטל את הכותרות משנה שמסבירות מה לבצע בכל פרק</t>
-  </si>
-  <si>
-    <t>קופה - לבטל את הכותרת שמסבירה איזה משלוח עדיף The best price and speed</t>
-  </si>
-  <si>
-    <t>קופה - בעלות של דואר שליחים כתוב באנגלית "TAX" - לבטל</t>
-  </si>
-  <si>
-    <t>מיקוד - לתקן MASK של מיקוד
-- לעדכן דרך הLOCAL-COUNTRIES</t>
-  </si>
-  <si>
-    <t>כללי - האם להוסיף קבוע טאב "משלוחים והחזרות" ? קיים בעדיקה, וקגם בקסטרו. מנגיש את המידע</t>
-  </si>
-  <si>
-    <t>כללי - במטבע לתקן שיהיה עם . במקום , כמוכ לבטל נקודה עשרונית. כמו"כ שהסימן יהיה משמאל.
-- לבצע דרך Localization  &gt; Currencies 
-לסמן שיהיה כמו E</t>
-  </si>
-  <si>
-    <t>כללי - RTL
-- הייצרן של הTHEME שלח קבצי CSS שונים להחלפה:
-/themes/transformer/css/modules/blocksearch/blocksearch.css
-/modules/stthemeeditor/views/css/responsive.css
-/themes/transformer/css/rtl.css
-בעיות עם RTL:
-- בעמודים "נוספים" כמו צור קשר, המסלול לעמוד צמוד לימין אבל הפוך. - !!! פתוח!!!
-- ב CART השורה העליונה הפוכה + הכמות X מוצר לא מיושר טוב.
-- בתהליך הרישום, האינדיקציות של משלוח מייל לא מיושרות טוב, וכך הבקשה להזין 5 אותיות בסיסמה, בכתובת הבקשה להזין לפחות טלפון אחד
-- בתשלום, הRADIO BTN של בחירת אופן משלוח לא מיושר לימין
-- בקטגוריה, יש שורות לא מלאות, אלא עם מוצר אחד בלבד
-- ה ZOOM נפתח בצד ימין ולא בשמאל</t>
+- יצירת ספרייה חדשה בGOOGLE DRIVE , לגבות פנימה ZIP של הPRESTA וגיבוי של הDB.
+-  בשרת מחיקת DB הקמת חדש, מתן הרשאות למשתמש אפליקטיבי ושחזור.
+- העברת הZIP עם הקוד בFTP, ועל השרת פריסה שלו.
+- עדכון ps_shop_url, בכתובת האתר וספריית פרסטה
+- עדכון סיסמה בקובץ SETTING</t>
+  </si>
+  <si>
+    <t>הקמת שרת מקומי</t>
+  </si>
+  <si>
+    <t>סדר פעולות:
+- יש להקים משתמש בשם shokolad_user
+- יש לתת לו הרשאות מלאות לDB הנוכחי shokolad_db
+- יש לתת לו סיסמה shokolad_user
+אם צריך יש לקנפג את setting.inc
+הרעיון הוא לדמות את המקומי לשרת כמה שניתן</t>
+  </si>
+  <si>
+    <t>מוצר - יש להבליט את הכותרת + תיאור מוצר.
+כדי לשלוט עליהם יש לעדכן את הCSS :
+/*set color+size of product body and header*/
+/*---------------------------------------------------*/
+#pb-left-column .heading{color:#000000;}
+#pb-left-column .heading{font-size:1.4em;}
+#short_description_content{color:#000000;}
+#pb-left-column #buy_block label, #pb-left-column #buy_block .product_attributes{color:#000000;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">להסיר בRELATED את הQUICK VIEW כאשר עוברים על המוצר
+- צריך להסיר את המודול Product Quick View. 
+- כדי לנקות מה שנשאר יש לעדכן CSS :
+/*cancel hoover on related products/*
+/*---------------------------------------------------*/
+ .hover_fly{display:none;} </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,26 +1674,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="21"/>
-      <color rgb="FF504D4D"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="21"/>
-      <color rgb="FFE17365"/>
-      <name val="Georgia"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1826,7 +1824,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1888,7 +1886,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1898,7 +1895,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2214,11 +2215,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E297"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2246,7 +2248,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75">
+    <row r="2" spans="1:5" ht="42.75" hidden="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="57">
+    <row r="3" spans="1:5" ht="57" hidden="1">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2274,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="28.5">
+    <row r="4" spans="1:5" ht="28.5" hidden="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2285,7 +2287,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="28.5">
+    <row r="5" spans="1:5" ht="28.5" hidden="1">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2300,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="28.5">
+    <row r="6" spans="1:5" ht="28.5" hidden="1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2311,7 +2313,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="28.5">
+    <row r="7" spans="1:5" ht="28.5" hidden="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2326,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="28.5">
+    <row r="8" spans="1:5" ht="28.5" hidden="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2339,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="28.5">
+    <row r="9" spans="1:5" ht="28.5" hidden="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>27</v>
@@ -2348,7 +2350,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="42.75">
+    <row r="10" spans="1:5" ht="42.75" hidden="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>28</v>
@@ -2359,7 +2361,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="28.5">
+    <row r="11" spans="1:5" ht="28.5" hidden="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -2370,7 +2372,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="28.5">
+    <row r="12" spans="1:5" ht="28.5" hidden="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>30</v>
@@ -2381,7 +2383,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
@@ -2392,7 +2394,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>32</v>
@@ -2403,7 +2405,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -2414,7 +2416,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -2425,7 +2427,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
@@ -2436,7 +2438,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>36</v>
@@ -2447,7 +2449,7 @@
       </c>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>37</v>
@@ -2458,7 +2460,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>96</v>
@@ -2471,7 +2473,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>39</v>
@@ -2482,7 +2484,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -2493,7 +2495,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>41</v>
@@ -2504,7 +2506,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="57">
+    <row r="24" spans="1:5" ht="57" hidden="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2515,7 +2517,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="42.75">
+    <row r="25" spans="1:5" ht="42.75" hidden="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>43</v>
@@ -2526,7 +2528,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>44</v>
@@ -2537,7 +2539,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>45</v>
@@ -2563,7 +2565,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="8" t="s">
         <v>300</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="4" t="s">
         <v>240</v>
       </c>
@@ -2610,7 +2612,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>50</v>
@@ -2621,7 +2623,7 @@
       </c>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>51</v>
@@ -2632,7 +2634,7 @@
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>52</v>
@@ -2643,7 +2645,7 @@
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>53</v>
@@ -2654,7 +2656,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>54</v>
@@ -2680,7 +2682,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -2691,7 +2693,7 @@
       </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="28.5">
+    <row r="39" spans="1:5" ht="28.5" hidden="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>57</v>
@@ -2702,7 +2704,7 @@
       </c>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>58</v>
@@ -2713,7 +2715,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>59</v>
@@ -2724,7 +2726,7 @@
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>62</v>
@@ -2735,7 +2737,7 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>60</v>
@@ -2746,7 +2748,7 @@
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>61</v>
@@ -2757,7 +2759,7 @@
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>63</v>
@@ -2768,7 +2770,7 @@
       </c>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>64</v>
@@ -2779,7 +2781,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>71</v>
@@ -2790,7 +2792,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>72</v>
@@ -2801,7 +2803,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>80</v>
@@ -2812,7 +2814,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="199.5">
+    <row r="50" spans="1:5" ht="199.5" hidden="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>73</v>
@@ -2823,7 +2825,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>74</v>
@@ -2834,7 +2836,7 @@
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>75</v>
@@ -2845,7 +2847,7 @@
       </c>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>76</v>
@@ -2856,7 +2858,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>77</v>
@@ -2867,7 +2869,7 @@
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>78</v>
@@ -2878,7 +2880,7 @@
       </c>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>79</v>
@@ -2919,7 +2921,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>82</v>
@@ -2930,7 +2932,7 @@
       </c>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>84</v>
@@ -2941,7 +2943,7 @@
       </c>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>86</v>
@@ -2952,7 +2954,7 @@
       </c>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>83</v>
@@ -2963,7 +2965,7 @@
       </c>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>85</v>
@@ -2974,7 +2976,7 @@
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" hidden="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>87</v>
@@ -2985,7 +2987,7 @@
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>88</v>
@@ -2998,10 +3000,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
@@ -3011,7 +3013,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.5">
+    <row r="67" spans="1:5" ht="28.5" hidden="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>292</v>
@@ -3024,7 +3026,7 @@
       </c>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" ht="28.5">
+    <row r="68" spans="1:5" ht="28.5" hidden="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>293</v>
@@ -3037,7 +3039,7 @@
       </c>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="28.5">
+    <row r="69" spans="1:5" ht="28.5" hidden="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>294</v>
@@ -3050,7 +3052,7 @@
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" ht="28.5">
+    <row r="70" spans="1:5" ht="28.5" hidden="1">
       <c r="A70" s="4" t="s">
         <v>240</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="57">
+    <row r="72" spans="1:5" ht="57" hidden="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>93</v>
@@ -3093,7 +3095,7 @@
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>94</v>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>95</v>
@@ -3115,7 +3117,7 @@
       </c>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" ht="42.75">
+    <row r="75" spans="1:5" ht="42.75" hidden="1">
       <c r="A75" s="4"/>
       <c r="B75" s="8" t="s">
         <v>98</v>
@@ -3141,7 +3143,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
         <v>97</v>
@@ -3152,7 +3154,7 @@
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>99</v>
@@ -3178,7 +3180,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="42.75">
+    <row r="80" spans="1:5" ht="42.75" hidden="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>101</v>
@@ -3189,7 +3191,7 @@
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>102</v>
@@ -3200,7 +3202,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>103</v>
@@ -3211,7 +3213,7 @@
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" hidden="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>104</v>
@@ -3222,7 +3224,7 @@
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>105</v>
@@ -3233,7 +3235,7 @@
       </c>
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="1:5" ht="42.75">
+    <row r="85" spans="1:5" ht="42.75" hidden="1">
       <c r="A85" s="4" t="s">
         <v>287</v>
       </c>
@@ -3243,12 +3245,14 @@
       <c r="C85" s="4">
         <v>1</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E85" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" hidden="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>107</v>
@@ -3276,10 +3280,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -3289,7 +3293,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>110</v>
@@ -3300,7 +3304,7 @@
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
         <v>111</v>
@@ -3326,7 +3330,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
         <v>113</v>
@@ -3337,7 +3341,7 @@
       </c>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
         <v>114</v>
@@ -3348,7 +3352,7 @@
       </c>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
         <v>115</v>
@@ -3374,7 +3378,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
         <v>117</v>
@@ -3385,7 +3389,7 @@
       </c>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
         <v>118</v>
@@ -3411,7 +3415,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" hidden="1">
       <c r="A99" s="4" t="s">
         <v>240</v>
       </c>
@@ -3430,10 +3434,10 @@
     </row>
     <row r="100" spans="1:5" ht="28.5">
       <c r="A100" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
@@ -3443,7 +3447,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>108</v>
@@ -3460,10 +3464,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C102" s="4">
         <v>1.1000000000000001</v>
@@ -3488,10 +3492,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
@@ -3501,7 +3505,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
         <v>171</v>
@@ -3512,7 +3516,7 @@
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
         <v>172</v>
@@ -3523,7 +3527,7 @@
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" hidden="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
         <v>173</v>
@@ -3534,7 +3538,7 @@
       </c>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" hidden="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
         <v>182</v>
@@ -3633,10 +3637,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -3648,10 +3652,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -3661,7 +3665,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
         <v>188</v>
@@ -3674,10 +3678,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -3687,7 +3691,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" hidden="1">
       <c r="A119" s="4"/>
       <c r="B119" s="17" t="s">
         <v>190</v>
@@ -3700,10 +3704,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C120" s="4">
         <v>1</v>
@@ -3713,7 +3717,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" hidden="1">
       <c r="A121" s="4" t="s">
         <v>300</v>
       </c>
@@ -3730,10 +3734,10 @@
     </row>
     <row r="122" spans="1:5" ht="28.5">
       <c r="A122" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -3743,7 +3747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="28.5">
+    <row r="123" spans="1:5" ht="28.5" hidden="1">
       <c r="A123" s="4" t="s">
         <v>229</v>
       </c>
@@ -3758,7 +3762,7 @@
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="28.5">
+    <row r="124" spans="1:5" ht="28.5" hidden="1">
       <c r="A124" s="8" t="s">
         <v>261</v>
       </c>
@@ -3773,7 +3777,7 @@
       </c>
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="8" t="s">
         <v>258</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="23"/>
       <c r="B127" s="24" t="s">
         <v>197</v>
@@ -3814,7 +3818,7 @@
       </c>
       <c r="E127" s="23"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="4"/>
       <c r="B128" s="17" t="s">
         <v>198</v>
@@ -3840,7 +3844,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="23"/>
       <c r="B130" s="24" t="s">
         <v>199</v>
@@ -3853,7 +3857,7 @@
       </c>
       <c r="E130" s="23"/>
     </row>
-    <row r="131" spans="1:5" ht="30">
+    <row r="131" spans="1:5" ht="30" hidden="1">
       <c r="A131" s="4"/>
       <c r="B131" s="18" t="s">
         <v>200</v>
@@ -3864,7 +3868,7 @@
       </c>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="1:5" ht="28.5">
+    <row r="132" spans="1:5" ht="28.5" hidden="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
         <v>218</v>
@@ -3877,7 +3881,7 @@
       </c>
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="23"/>
       <c r="B133" s="24" t="s">
         <v>201</v>
@@ -3890,7 +3894,7 @@
       </c>
       <c r="E133" s="23"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="4" t="s">
         <v>204</v>
       </c>
@@ -3903,7 +3907,7 @@
       </c>
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="4" t="s">
         <v>204</v>
       </c>
@@ -3916,7 +3920,7 @@
       </c>
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="4" t="s">
         <v>240</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="23"/>
       <c r="B137" s="23" t="s">
         <v>207</v>
@@ -3944,7 +3948,7 @@
       </c>
       <c r="E137" s="23"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" hidden="1">
       <c r="A138" s="4" t="s">
         <v>240</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.5">
+    <row r="141" spans="1:5" ht="28.5" hidden="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
         <v>38</v>
@@ -4002,7 +4006,7 @@
       </c>
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:5" ht="28.5">
+    <row r="142" spans="1:5" ht="28.5" hidden="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
         <v>46</v>
@@ -4013,7 +4017,7 @@
       </c>
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" hidden="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
         <v>47</v>
@@ -4024,7 +4028,7 @@
       </c>
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:5" ht="28.5">
+    <row r="144" spans="1:5" ht="28.5" hidden="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>48</v>
@@ -4035,7 +4039,7 @@
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="23" t="s">
         <v>231</v>
       </c>
@@ -4048,7 +4052,7 @@
       </c>
       <c r="E145" s="23"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
         <v>49</v>
@@ -4059,7 +4063,7 @@
       </c>
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
         <v>55</v>
@@ -4072,7 +4076,7 @@
       </c>
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
         <v>81</v>
@@ -4113,7 +4117,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="23"/>
       <c r="B151" s="23" t="s">
         <v>220</v>
@@ -4154,7 +4158,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="23"/>
       <c r="B154" s="23" t="s">
         <v>226</v>
@@ -4180,7 +4184,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
         <v>91</v>
@@ -4191,7 +4195,7 @@
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" hidden="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
         <v>92</v>
@@ -4256,7 +4260,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="4"/>
       <c r="B162" s="14" t="s">
         <v>158</v>
@@ -4267,7 +4271,7 @@
       </c>
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="4"/>
       <c r="B163" s="8" t="s">
         <v>159</v>
@@ -4278,7 +4282,7 @@
       </c>
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="4"/>
       <c r="B164" s="17" t="s">
         <v>162</v>
@@ -4289,7 +4293,7 @@
       </c>
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" hidden="1">
       <c r="A165" s="4"/>
       <c r="B165" s="17" t="s">
         <v>163</v>
@@ -4330,7 +4334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="4"/>
       <c r="B168" s="17" t="s">
         <v>194</v>
@@ -4341,7 +4345,7 @@
       </c>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
         <v>184</v>
@@ -4352,7 +4356,7 @@
       </c>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
         <v>185</v>
@@ -4363,7 +4367,7 @@
       </c>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" hidden="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
         <v>186</v>
@@ -4389,7 +4393,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
         <v>187</v>
@@ -4400,7 +4404,7 @@
       </c>
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" hidden="1">
       <c r="A174" s="4"/>
       <c r="B174" s="17" t="s">
         <v>189</v>
@@ -4439,7 +4443,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="4"/>
       <c r="B177" s="8" t="s">
         <v>193</v>
@@ -4502,7 +4506,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.5">
+    <row r="182" spans="1:5" ht="28.5" hidden="1">
       <c r="A182" s="24" t="s">
         <v>268</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" hidden="1">
       <c r="A184" s="4" t="s">
         <v>242</v>
       </c>
@@ -4541,7 +4545,7 @@
       </c>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" ht="57">
+    <row r="185" spans="1:5" ht="57" hidden="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
         <v>244</v>
@@ -4565,7 +4569,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
         <v>248</v>
@@ -4576,7 +4580,7 @@
       </c>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="4" t="s">
         <v>246</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="8" t="s">
         <v>266</v>
       </c>
@@ -4617,7 +4621,7 @@
       </c>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="8" t="s">
         <v>240</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="8" t="s">
         <v>287</v>
       </c>
@@ -4684,7 +4688,7 @@
       </c>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="8" t="s">
         <v>287</v>
       </c>
@@ -4697,7 +4701,7 @@
       </c>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="8" t="s">
         <v>287</v>
       </c>
@@ -4705,7 +4709,9 @@
         <v>277</v>
       </c>
       <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E197" s="4" t="s">
         <v>297</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="4" t="s">
         <v>328</v>
       </c>
@@ -4865,12 +4871,14 @@
         <v>329</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E209" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="4" t="s">
         <v>328</v>
       </c>
@@ -4878,12 +4886,14 @@
         <v>330</v>
       </c>
       <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="D210" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E210" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="4" t="s">
         <v>328</v>
       </c>
@@ -4891,7 +4901,9 @@
         <v>331</v>
       </c>
       <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="D211" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E211" s="4" t="s">
         <v>297</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="4" t="s">
         <v>287</v>
       </c>
@@ -4958,30 +4970,34 @@
         <v>340</v>
       </c>
       <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E216" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="42.75">
+    <row r="217" spans="1:5" ht="42.75" hidden="1">
       <c r="A217" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E217" s="4" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="57">
+    <row r="218" spans="1:5" ht="57" hidden="1">
       <c r="A218" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
@@ -4996,7 +5012,7 @@
         <v>302</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -5009,7 +5025,7 @@
         <v>300</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -5017,15 +5033,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="4" t="s">
         <v>287</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="D221" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E221" s="4" t="s">
         <v>297</v>
       </c>
@@ -5178,10 +5196,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>297</v>
@@ -5189,10 +5207,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>297</v>
@@ -5203,7 +5221,7 @@
         <v>302</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C234" s="1">
         <v>1</v>
@@ -5214,10 +5232,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5225,42 +5243,44 @@
         <v>300</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>372</v>
-      </c>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" hidden="1">
+      <c r="A238" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" ht="28.5">
       <c r="A239" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D239" s="1">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B240" s="26" t="s">
-        <v>401</v>
+        <v>369</v>
+      </c>
+      <c r="B240" s="25" t="s">
+        <v>370</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -5268,10 +5288,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B241" s="27" t="s">
-        <v>402</v>
+        <v>369</v>
+      </c>
+      <c r="B241" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -5279,10 +5299,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B242" s="26" t="s">
-        <v>403</v>
+        <v>369</v>
+      </c>
+      <c r="B242" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -5290,10 +5310,10 @@
     </row>
     <row r="243" spans="1:5" ht="42.75">
       <c r="A243" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B243" s="26" t="s">
-        <v>418</v>
+        <v>369</v>
+      </c>
+      <c r="B243" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -5301,10 +5321,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B244" s="26" t="s">
-        <v>404</v>
+        <v>369</v>
+      </c>
+      <c r="B244" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -5312,10 +5332,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B245" s="26" t="s">
-        <v>405</v>
+        <v>369</v>
+      </c>
+      <c r="B245" s="25" t="s">
+        <v>374</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -5323,10 +5343,10 @@
     </row>
     <row r="246" spans="1:5" ht="28.5">
       <c r="A246" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B246" s="26" t="s">
-        <v>427</v>
+        <v>379</v>
+      </c>
+      <c r="B246" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -5334,10 +5354,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B247" s="26" t="s">
-        <v>408</v>
+        <v>369</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -5345,10 +5365,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B248" s="26" t="s">
-        <v>406</v>
+        <v>369</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -5356,10 +5376,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B249" s="26" t="s">
-        <v>407</v>
+        <v>369</v>
+      </c>
+      <c r="B249" s="25" t="s">
+        <v>376</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -5367,10 +5387,10 @@
     </row>
     <row r="250" spans="1:5" ht="57">
       <c r="A250" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B250" s="26" t="s">
-        <v>421</v>
+        <v>369</v>
+      </c>
+      <c r="B250" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -5378,10 +5398,10 @@
     </row>
     <row r="251" spans="1:5" ht="42.75">
       <c r="A251" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B251" s="26" t="s">
-        <v>413</v>
+        <v>369</v>
+      </c>
+      <c r="B251" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -5389,10 +5409,10 @@
     </row>
     <row r="252" spans="1:5" ht="42.75">
       <c r="A252" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B252" s="26" t="s">
-        <v>412</v>
+        <v>369</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -5400,10 +5420,10 @@
     </row>
     <row r="253" spans="1:5" ht="42.75">
       <c r="A253" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B253" s="26" t="s">
-        <v>414</v>
+        <v>369</v>
+      </c>
+      <c r="B253" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -5411,10 +5431,10 @@
     </row>
     <row r="254" spans="1:5" ht="42.75">
       <c r="A254" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B254" s="26" t="s">
-        <v>424</v>
+        <v>369</v>
+      </c>
+      <c r="B254" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -5422,10 +5442,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -5433,10 +5453,10 @@
     </row>
     <row r="256" spans="1:5" ht="42.75">
       <c r="A256" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B256" s="26" t="s">
-        <v>434</v>
+        <v>369</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>398</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -5444,10 +5464,10 @@
     </row>
     <row r="257" spans="1:5" ht="28.5">
       <c r="A257" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B257" s="27" t="s">
-        <v>429</v>
+        <v>379</v>
+      </c>
+      <c r="B257" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -5455,10 +5475,10 @@
     </row>
     <row r="258" spans="1:5" ht="28.5">
       <c r="A258" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B258" s="26" t="s">
-        <v>426</v>
+        <v>369</v>
+      </c>
+      <c r="B258" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -5466,10 +5486,10 @@
     </row>
     <row r="259" spans="1:5" ht="28.5">
       <c r="A259" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B259" s="26" t="s">
-        <v>415</v>
+        <v>369</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>384</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -5477,10 +5497,10 @@
     </row>
     <row r="260" spans="1:5" ht="28.5">
       <c r="A260" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B260" s="26" t="s">
-        <v>416</v>
+        <v>369</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>385</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -5488,10 +5508,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>411</v>
+        <v>379</v>
+      </c>
+      <c r="B261" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -5499,10 +5519,10 @@
     </row>
     <row r="262" spans="1:5" ht="57">
       <c r="A262" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B262" s="26" t="s">
-        <v>423</v>
+        <v>369</v>
+      </c>
+      <c r="B262" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -5510,43 +5530,45 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B263" s="26" t="s">
-        <v>417</v>
+        <v>379</v>
+      </c>
+      <c r="B263" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" ht="42.75">
       <c r="A264" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>419</v>
+        <v>379</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>439</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" ht="28.5">
       <c r="A265" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="4"/>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="E265" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="28.5">
       <c r="A266" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>422</v>
+        <v>379</v>
+      </c>
+      <c r="B266" s="25" t="s">
+        <v>442</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -5554,18 +5576,18 @@
     </row>
     <row r="267" spans="1:5" ht="57">
       <c r="A267" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B267" s="26" t="s">
-        <v>425</v>
+        <v>369</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="1:5" ht="199.5">
+    <row r="268" spans="1:5" ht="85.5">
       <c r="A268" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B268" s="17" t="s">
         <v>462</v>
@@ -5576,21 +5598,21 @@
     </row>
     <row r="269" spans="1:5" ht="42.75">
       <c r="A269" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B269" s="26" t="s">
-        <v>428</v>
+        <v>379</v>
+      </c>
+      <c r="B269" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" ht="28.5">
       <c r="A270" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>433</v>
+        <v>379</v>
+      </c>
+      <c r="B270" s="28" t="s">
+        <v>456</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -5598,12 +5620,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" ht="42.75">
       <c r="A271" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>436</v>
+        <v>379</v>
+      </c>
+      <c r="B271" s="28" t="s">
+        <v>421</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -5611,10 +5633,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -5622,254 +5644,576 @@
     </row>
     <row r="273" spans="1:5" ht="28.5">
       <c r="A273" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B273" s="26" t="s">
-        <v>431</v>
+        <v>379</v>
+      </c>
+      <c r="B273" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" ht="42.75">
       <c r="A274" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>432</v>
+        <v>379</v>
+      </c>
+      <c r="B274" s="25" t="s">
+        <v>399</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="1:5" ht="42.75">
+    <row r="275" spans="1:5" ht="28.5">
       <c r="A275" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B275" s="26" t="s">
-        <v>435</v>
+        <v>379</v>
+      </c>
+      <c r="B275" s="28" t="s">
+        <v>457</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="E275" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="85.5">
       <c r="A276" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>438</v>
+        <v>379</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>450</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="71.25">
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" spans="1:5" ht="57">
       <c r="A277" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B277" s="27" t="s">
-        <v>440</v>
+        <v>379</v>
+      </c>
+      <c r="B277" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" ht="85.5">
       <c r="A278" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B278" s="17" t="s">
-        <v>437</v>
+        <v>379</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-    </row>
-    <row r="279" spans="1:5" ht="85.5">
+      <c r="E278" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B279" s="17" t="s">
-        <v>439</v>
+        <v>379</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B280" s="17" t="s">
-        <v>441</v>
+        <v>379</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" ht="42.75">
       <c r="A281" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>442</v>
+        <v>379</v>
+      </c>
+      <c r="B281" s="17" t="s">
+        <v>404</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="1:5" ht="42.75">
+    <row r="282" spans="1:5" ht="28.5">
       <c r="A282" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B282" s="17" t="s">
-        <v>444</v>
+        <v>379</v>
+      </c>
+      <c r="B282" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="1:5" ht="28.5">
+    <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
+      <c r="E283" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" spans="1:5" ht="15">
       <c r="A285" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>446</v>
+        <v>407</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>408</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="1:5" ht="15">
+    <row r="286" spans="1:5" ht="99.75">
       <c r="A286" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="B286" s="18" t="s">
-        <v>448</v>
+        <v>468</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="1:5" ht="156.75">
+    <row r="287" spans="1:5" ht="185.25">
       <c r="A287" s="4" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B288" s="1" t="s">
+      <c r="A288" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289" spans="1:5" ht="28.5">
+      <c r="A289" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B289" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" spans="1:5" ht="71.25">
+      <c r="A290" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291" spans="1:5" ht="28.5">
+      <c r="A291" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B291" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="1:5" ht="42.75">
+      <c r="A296" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B296" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297" spans="1:5" ht="28.5">
+      <c r="A297" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B297" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298" spans="1:5" ht="42.75">
+      <c r="A298" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B298" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+    </row>
+    <row r="301" spans="1:5" ht="28.5">
+      <c r="A301" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B301" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303" spans="1:5" ht="28.5">
+      <c r="A303" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B303" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304" spans="1:5" ht="114">
+      <c r="A304" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" spans="1:5" ht="85.5">
+      <c r="A306" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="1:5" ht="28.5">
+      <c r="A309" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310" spans="1:5" ht="71.25">
+      <c r="A310" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B312" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+    </row>
+    <row r="313" spans="1:5" ht="28.5">
+      <c r="A313" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B313" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+    </row>
+    <row r="314" spans="1:5" ht="28.5">
+      <c r="A314" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B314" s="28" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" ht="28.5">
-      <c r="A289" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B289" s="28" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="71.25">
-      <c r="A290" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B290" s="28" t="s">
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+    </row>
+    <row r="315" spans="1:5" ht="28.5">
+      <c r="A315" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B315" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" ht="28.5">
-      <c r="A291" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B291" s="29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B292" s="1" t="s">
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316" spans="1:5" ht="28.5">
+      <c r="A316" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B316" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317" spans="1:5" ht="85.5">
+      <c r="A317" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B317" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+    </row>
+    <row r="318" spans="1:5" ht="28.5">
+      <c r="A318" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B318" s="17" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B319" s="17" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" ht="42.75">
-      <c r="B296" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="B297" s="1" t="s">
-        <v>460</v>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+    </row>
+    <row r="320" spans="1:5" ht="57">
+      <c r="A320" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" spans="1:5" ht="114">
+      <c r="B323" s="30" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E291"/>
+  <autoFilter ref="A1:E298">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1"/>
-    <hyperlink ref="B286" r:id="rId2"/>
+    <hyperlink ref="B285" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6507,247 +6851,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="82.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5">
-      <c r="A4" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.5">
-      <c r="A6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="42.75">
-      <c r="A7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="42.75">
-      <c r="A8" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5">
-      <c r="A13" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>394</v>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/shokolada_website.xlsx
+++ b/shokolada_website.xlsx
@@ -17,14 +17,14 @@
     <sheet name="לינקים" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$335</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="500">
   <si>
     <t>SETUP</t>
   </si>
@@ -1359,17 +1359,6 @@
 - לבצע דרך הTHEME EDITOR תחת Other pages layout:</t>
   </si>
   <si>
-    <t xml:space="preserve">יישום של הפונט גם בחלקים אחרים בדף:
-מגהמניו - דרך ה THEME EDITOR, תחת MENU
-חיפוש - </t>
-  </si>
-  <si>
-    <t>כללי - לקנפג צבעוניות של הכותרת עליונה / תחתונה</t>
-  </si>
-  <si>
-    <t>עמוד בית - בכותרת העליונה לבטל את "רישום". אפשר להרשם דרך הLOGIN</t>
-  </si>
-  <si>
     <t>איפוס סיסמה</t>
   </si>
   <si>
@@ -1389,23 +1378,10 @@
 - בכותרת העליונה לבטל כפל התחברות/ רישום</t>
   </si>
   <si>
-    <t>תהליך רישום:
-- לבטל תואר מר/גברת
-- לבטל Receive special offers from our partners!
-- למה בסוף תהליך הרישום מתבקשים להזין כתובת ?
-- לבטל בדף "החשבון שלי" Welcome to your account. Here you can manage</t>
-  </si>
-  <si>
     <t>קופה - לשלב CUSTOMERS WHO BOUGHT THIS PRODUCT ALSO BOUGHT</t>
   </si>
   <si>
     <t>קופה - לבטל את הכותרות משנה שמסבירות מה לבצע בכל פרק</t>
-  </si>
-  <si>
-    <t>קופה - לבטל את הכותרת שמסבירה איזה משלוח עדיף The best price and speed</t>
-  </si>
-  <si>
-    <t>קופה - בעלות של דואר שליחים כתוב באנגלית "TAX" - לבטל</t>
   </si>
   <si>
     <t>מיקוד - לתקן MASK של מיקוד
@@ -1429,9 +1405,6 @@
     <t>קינפוג רשתות חבריות:
 - לבצע דרך Social networking block
 להשאיר פייסבוק, יוטיוב(?) , אינסטגרם</t>
-  </si>
-  <si>
-    <t>לוודא שהחיפוש לפי מלל עובד. לא כ"כ עבד לי</t>
   </si>
   <si>
     <t>לשפצר דף "צור קשר". להעיף כותרות מיותרות, לא ברור מה המשמעות של המקט/מוצר, לבטל בחירה של נושא</t>
@@ -1506,20 +1479,7 @@
 - גליונות מדבקות להדפסת הכתובת לקוח</t>
   </si>
   <si>
-    <t>לקשר PAYPAL כאמצעי תשלום</t>
-  </si>
-  <si>
     <t>לתכנן עלייה לאוויר, פיילוט על תהליך קניה הזמנה וכו'. מול יניב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לשנות את האייקון של החצים בסליידר הראשי לנקי יותר.
-- כרגע הסרתי את החצים בכלל + שיניתי שלא יהיה רגיש למעבר של הHOOVER עליו.
-- בעבר שיניתי גם שסוג המעבר יהיה FADE בלבד
-מבוצע בקינפוג של הסליידר הספציפי
-</t>
-  </si>
-  <si>
-    <t>להצר את הפס העליון שיש בו LOGIN</t>
   </si>
   <si>
     <t>לבטל את הקומפוננטה של החיפוש</t>
@@ -1536,10 +1496,6 @@
 - דרך הקינפוג של הTHEME בTAB של הPRODUCT</t>
   </si>
   <si>
-    <t>כללי - להוסיף "רכישה בטוחה בשוקולדה"
-- לעדכן כתמונה, בצמוד לתמונה של אמצעי התשלום</t>
-  </si>
-  <si>
     <t>ניהול IMAGE של טבלת מידות לכל שמלה.
 - צריך למדוד כל שמלה על כמה ילדות כדי לקבוע איזה שימלה מתאימה לאיזה גיל</t>
   </si>
@@ -1548,43 +1504,17 @@
 - צריך להוסיף בPOSITIONS את related products , במיקום displayFooterProduct</t>
   </si>
   <si>
-    <t>השוליים התרחבו והתוכן התרכז פנימה. לא ברור למה - 
-- שלחתי שאלה לספק</t>
-  </si>
-  <si>
     <t>מוצר - לקבל החלטה האם להציג את העץ קטגוריות - צריך לפתוח עוד טור במוצר - יש שם עוד דברים להציג
 - כרגע לא מוצג - בוטל בקטגוריה כל הטור הימני עי ביטול SECONDARY ב עמוד PRODUCT</t>
   </si>
   <si>
     <t>מוצר - לבדוק עם אביגיל - האם רלוונטי להציג את המוצרים המקושרים לצד המוצר, לעומת מוצרים מאותה הקטגוריה
 - מוצגים מקושרים מתחת למוצר, בין השאר כדי להפריד מול הFOOTER</t>
-  </si>
-  <si>
-    <t>באנר של משלוחים והזמנות חינם שיהיה חשוף מכל הדפים כמו עדיקא</t>
-  </si>
-  <si>
-    <t>לטעון אייקון לרשימת אמצעי התשלום + להוסיף "קנייה בטוחה בשוקולדה" ולייצר מזה IMAGE אחד
-- דרך העדכון של הTHEME בטאב הראשון למטה</t>
-  </si>
-  <si>
-    <t>לבדוק אם כדאי להשתמש בסליידר מתחלף שמציג שלושה באנרים, כך אפשר להציג "קונים 2 שמלות" ופעם אחרת "קונים 2 חצאיות". גם הפרסומת לקטגוריה מתחלפת.
-רשימת באנרים:
--משלוחים והחזרות חינם
-- 2 פריטים מעוצבים ב99 שח. - "קונים 2 פריטים מעוצבים ומשלמים 99 ש"ח ! - ההנחה מתקבלת בקופה".
-- צבירת נקודות, כולל לחבר מביא חבר. - "חברי מועדון צוברים נקודות בכל קנייה"
-- פרסומת לקטגורית השמלות</t>
   </si>
   <si>
     <t>להזיז את SOCIEL שיהיה מתחת לתיאור המוצר, כמו בעיצוב האפור + לקנפג שיראה יפה, LIKE מהיר
 - כדי לבצע Go to Modules &gt; Positions &gt; Click on the Transplant a module button.
 In that screen , select “Add this button” from Module dropdown and select “displayRightColumnProduct” from hook into dropdown and click on the Save button.</t>
-  </si>
-  <si>
-    <t>כללי - RTL
-בעיות עם RTL:
-- בתשלום, הRADIO BTN של בחירת אופן משלוח לא מיושר לימין
-- בקטגוריה, יש שורות לא מלאות, אלא עם מוצר אחד בלבד
-- במוצר, הSOCIAL מוצמד לשמאל, צריך שיהיה מימין מתחת להוסף מוצר</t>
   </si>
   <si>
     <t>לבדוק פונט נוסף  - open sans heb - ביקשתי מהספק לטעון אותו.
@@ -1628,16 +1558,6 @@
 הרעיון הוא לדמות את המקומי לשרת כמה שניתן</t>
   </si>
   <si>
-    <t>מוצר - יש להבליט את הכותרת + תיאור מוצר.
-כדי לשלוט עליהם יש לעדכן את הCSS :
-/*set color+size of product body and header*/
-/*---------------------------------------------------*/
-#pb-left-column .heading{color:#000000;}
-#pb-left-column .heading{font-size:1.4em;}
-#short_description_content{color:#000000;}
-#pb-left-column #buy_block label, #pb-left-column #buy_block .product_attributes{color:#000000;}</t>
-  </si>
-  <si>
     <t xml:space="preserve">להסיר בRELATED את הQUICK VIEW כאשר עוברים על המוצר
 - צריך להסיר את המודול Product Quick View. 
 - כדי לנקות מה שנשאר יש לעדכן CSS :
@@ -1645,12 +1565,228 @@
 /*---------------------------------------------------*/
  .hover_fly{display:none;} </t>
   </si>
+  <si>
+    <t>אתר חדש - חוקי תשלום</t>
+  </si>
+  <si>
+    <t>לעדכן גירסת פרסטה עם המודול של ONE CLICK.</t>
+  </si>
+  <si>
+    <t>לקדם מודול נאמנות, איזה פעילויות כולל ?</t>
+  </si>
+  <si>
+    <t>השוליים התרחבו והתוכן התרכז פנימה. לא ברור למה - 
+- שלחתי שאלה לספק
+- הבעייה הייתה שבטעות ביטלתי את ה RESPONSIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> סל/חוקי תשלום: בנוסף נראה שה+- לא מפעיל מחדש את החוקים
+- שלחתי שאלה</t>
+  </si>
+  <si>
+    <t>סל/חוקי תשלום: אם יש שני מוצרים, מכל אחד שניים (וכנראה שהחוק של 4 שמלות מופעל), ומורידים ב"-" מאחת השמלות, מקבלים שגיאה. גם אחרי התיקון של הCSS
+- שלחתי שאלה</t>
+  </si>
+  <si>
+    <t>סל/חוקי תשלום: בבאנר של הסל, רואים את המחיר אחרי הנחה, אבל כשפותחים אותו רואים את הבסיס בלי השורה של ההנחה.
+אם עוברים עמוד, השורה נוספת
+בדומה, אם מוסיפים עוד שני מוצרים אז רואים עדיין הנחה על 2, רק אחרי שעוברים רואים הנחה על 4
+- שלחתי שאלה</t>
+  </si>
+  <si>
+    <t>סל/חוקי תשלום - מקומי - נתפסים 2 החוקים, למרות שבדיוק אותו הקוד על השרת תופס רק אחד.</t>
+  </si>
+  <si>
+    <t>בשרת, לוודא שעולה תמיד עם עברית כדי שאפשר יהיה לבטל את הבחירת שפה</t>
+  </si>
+  <si>
+    <t>לקבוע איך יראה ה ADD THIS BTN, לבצע על השרת עצמו</t>
+  </si>
+  <si>
+    <t>סל/חוקי תשלום - חוקי התשלום שניהם "נתפסים".
+- אולי הבעיה היא במקומי, ובשרת הכל עובד. להגדיר את החוקים ולבדוק אותם בשרת</t>
+  </si>
+  <si>
+    <t>תהליכים - לבצע תהליכים מההתחלה עד הסוף ולראות שתקינים:
+- בחירת מוצר, רישום לאתר פעם ראשונה, רכישה.
+- בחירת מוצר, כניסה חוזרת, רכישה.</t>
+  </si>
+  <si>
+    <t>יישום של הפונט גם בחלקים אחרים בדף:
+מגהמניו - דרך ה THEME EDITOR, תחת MENU</t>
+  </si>
+  <si>
+    <t>כללי - לקנפג צבעוניות של הכותרת עליונה / תחתונה. 
+- לפי אביגיל להשאיר ככה.</t>
+  </si>
+  <si>
+    <t>חוקי תשלום - להזין את כל הקומבינציות עד תמיכה ב400 שח. לתכנן אותן בצד</t>
+  </si>
+  <si>
+    <t>נקודות מועדון - לא מצליח להסב אותן כדי שניתן יהיה להשתמש בהן</t>
+  </si>
+  <si>
+    <t>קופה - בעלות של דואר שליחים כתוב באנגלית "TAX" - לבטל
+- נשלח מייל</t>
+  </si>
+  <si>
+    <t>קופה - לבטל את הכותרת שמסבירה איזה משלוח עדיף The best price and speed
+- נשלח מייל</t>
+  </si>
+  <si>
+    <t>האם לעשות לכל התמונות CROP ולצמצם את השוליים שלהם ? אביגיל - לא הכרחי בעיניה</t>
+  </si>
+  <si>
+    <t>להחליף את הספרייה של החנות לshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחרי שמשנים ל"אלף", צריך להגדיל את הפונט - כל האתר גדל פורפוציונאלית.
+הספק המליץ על 14, הלכתי על 15:
+body{font-size:15px;} </t>
+  </si>
+  <si>
+    <t>להראות לאביגיל איך נראה האתר עם הסגנון BOX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">מלל בFOOTER  - צור קשר, אודות
+ככלל אביגיל ביקשה להפוך כותרת לBOLD או להוסיף ENTER. לחזור אליה כאשר הנושא מטופל, זה HTML. צור קשר:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">צור קשר
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>שירות לקוחות
+טלפון: 111111
+מייל: aaaaa</t>
+    </r>
+  </si>
+  <si>
+    <t>לשנות את האייקון של החצים בסליידר הראשי לנקי יותר.
+- שיניתי שלא יהיה רגיש למעבר של הHOOVER עליו.
+- בעבר שיניתי גם שסוג המעבר יהיה FADE בלבד
+מבוצע בקינפוג של הסליידר הספציפי
+(בעבר הורדתי את החצים אבל אביגיל ביקשה להחזיר)
+זמן המתנה הוקטן ל 5 שניות.
+כדי לשנות את הגודל של החצים, לשלב בCSS:
+.slideshow_block.fullwidth_slideshow .camera_prev i, .slideshow_block.fullwidth_slideshow .camera_next i{font-size:3em;}</t>
+  </si>
+  <si>
+    <t>בבאנרים, לבטל HOOVER (מבוצע דרך המאגד של הבאנר במודול).
+בנוסף לשקול לשים שם סליידר עם מס תמונות כמו בעמוד הראשון</t>
+  </si>
+  <si>
+    <t>אתר חדש - צילומים</t>
+  </si>
+  <si>
+    <t>להוריד ברכיב של FACEBOOK את הכותרת.
+- צריך להוסיף לCSS:
+#facebook_like_box_footer .title_block{display:none;}</t>
+  </si>
+  <si>
+    <t>תוכן בCMS:
+לצמצם, לנסח ולהביר לאביגיל לעיצוב</t>
+  </si>
+  <si>
+    <t>לשנות את הצבע HOOVER של המוצר בדף הקטגוריה, להיות כמו האפור של הFOOTER
+.products_slider .ajax_block_product:hover .pro_second_box, 
+.grid_view #product_list .ajax_block_product:hover .pro_second_box { background:#bebdbd; }</t>
+  </si>
+  <si>
+    <t>כותרת "משלוחים והחזרות חינם" בראש הדף:
+- שלחתי שאלה איך אפשר להפוך ללינק למשלוחים.
+- איך אפשר לשלוט על הצבע האחורי</t>
+  </si>
+  <si>
+    <t>לשנות את הצבע רקע של ה"זמינות" בדף קטגוריה. כרגע אפור.
+.ajax_block_product .discount, .ajax_block_product .online_only, .ajax_block_product span.availability {background-color:#00a161;}</t>
+  </si>
+  <si>
+    <t>אתר חדש - תכולות אביגיל</t>
+  </si>
+  <si>
+    <t>רשימת באנרים:
+-משלוחים והחזרות חינם
+- 2 פריטים מעוצבים ב99 שח. - "קונים 2 פריטים מעוצבים ומשלמים 99 ש"ח ! - ההנחה מתקבלת בקופה".
+- צבירת נקודות, כולל לחבר מביא חבר. - "חברי מועדון צוברים נקודות בכל קנייה"
+- פרסומת לקטגורית השמלות
+- להתחיל מ3 שיווקיים מקסימום אחכ להחליף / להוסיף למוצר</t>
+  </si>
+  <si>
+    <t>לטעון אייקון לרשימת אמצעי התשלום + להוסיף "קנייה בטוחה בשוקולדה" ולייצר מזה IMAGE אחד.
+להגדיר סופית אם יש אשראי או לא, ואז להעביר לאביגיל. לברר עם פייפל - אם אפשר דרכם להשתמש בכל כרטיס אז אולי כן להציג לוגו של כולם
+- דרך העדכון של הTHEME בטאב הראשון למטה</t>
+  </si>
+  <si>
+    <t>נושאים:
+- מעבר על אתרים: אליזבט, לילי ותום גלידה.
+- מעבר על האתר: צילומים רחבים. מיקומים - בדף הבית + בקטגוריות. בשניהם אפשרי סליידר ולאו דווקא סטטי
+- אביגיל ביקשה לצלם SNAPSHOTS + לדבר איתה.
+- לצלם את הבת של תהילה ?
+- דעתן על צילומי הפקשוט הקיימים.
+- הגדרת תוכנית צילומים - שילוב של ילדה/שמלה/אקססורי עליה/אקססורי חיצוני . שילוב של כמה שמלות יחד.
+- סטיילינג</t>
+  </si>
+  <si>
+    <t>בעיות עם RTL:</t>
+  </si>
+  <si>
+    <t>אתר חדש - תמיכה בנייד</t>
+  </si>
+  <si>
+    <t>כללית - לשלוח את הCUSTOM CSS לספק, לוודא שתומך גם בנייד.</t>
+  </si>
+  <si>
+    <t>תהליך רישום:
+- לבטל תואר מר/גברת
+- לבטל Receive special offers from our partners!
+- למה בסוף תהליך הרישום מתבקשים להזין כתובת ? - מקנפגים דרך "Registration process type" drop-down list, select "Only account creation". היה מקונפג ככה אבל מקומית עדיין מבקש כתובת. בשרת בסדר.
+מעודכן דרך CSS</t>
+  </si>
+  <si>
+    <t>כותרת משנה ברישום / החשבון שלי / כתובות:
+- נראה שמיותרות. למפות ולהסיר</t>
+  </si>
+  <si>
+    <t>תאריך לידה ברישום - האם לבטל ?</t>
+  </si>
+  <si>
+    <t>תפעול - אביגיל תכולות</t>
+  </si>
+  <si>
+    <t>להוסיף PAYPAL. מה לגבי אשראי ? - לברר מול המוקדי שירות.</t>
+  </si>
+  <si>
+    <t>אתר חדש - עלייה לאוויר</t>
+  </si>
+  <si>
+    <t>צור קשר:
+- ביטלתי את טעינת הקובץ דרך הBO.
+- יש צורך בשדות שם, טלפון, מייל. שלחתי שאלה לספק</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,8 +1811,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1906,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1824,7 +1981,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1899,7 +2056,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2216,11 +2379,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E347"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B317" sqref="B317"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4783,7 +4946,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="4" t="s">
         <v>310</v>
       </c>
@@ -4791,7 +4954,9 @@
         <v>321</v>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E203" s="4" t="s">
         <v>297</v>
       </c>
@@ -4835,7 +5000,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="28.5">
+    <row r="207" spans="1:5" ht="28.5" hidden="1">
       <c r="A207" s="4" t="s">
         <v>325</v>
       </c>
@@ -4845,7 +5010,9 @@
       <c r="C207" s="4">
         <v>2</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="E207" s="4" t="s">
         <v>284</v>
       </c>
@@ -5231,28 +5398,37 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="31" t="s">
         <v>361</v>
       </c>
+      <c r="C235" s="31"/>
+      <c r="D235" s="31"/>
+      <c r="E235" s="31"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="31" t="s">
         <v>362</v>
       </c>
+      <c r="C236" s="31"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="31"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="31" t="s">
         <v>364</v>
       </c>
+      <c r="C237" s="31"/>
+      <c r="D237" s="31"/>
+      <c r="E237" s="31"/>
     </row>
     <row r="238" spans="1:5" hidden="1">
       <c r="A238" s="4" t="s">
@@ -5268,12 +5444,15 @@
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" ht="28.5">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="B239" s="27" t="s">
+      <c r="B239" s="32" t="s">
         <v>368</v>
       </c>
+      <c r="C239" s="31"/>
+      <c r="D239" s="31"/>
+      <c r="E239" s="31"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
@@ -5544,7 +5723,7 @@
         <v>379</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -5554,192 +5733,190 @@
       <c r="A265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>452</v>
+      <c r="B265" s="25" t="s">
+        <v>435</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="28.5">
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="1:5" ht="57">
       <c r="A266" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="1:5" ht="57">
+    <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B267" s="25" t="s">
-        <v>391</v>
+        <v>379</v>
+      </c>
+      <c r="B267" s="17" t="s">
+        <v>490</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="1:5" ht="85.5">
+    <row r="268" spans="1:5" ht="42.75">
       <c r="A268" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B268" s="17" t="s">
-        <v>462</v>
+      <c r="B268" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="1:5" ht="42.75">
+    <row r="269" spans="1:5" ht="28.5">
       <c r="A269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B269" s="25" t="s">
-        <v>394</v>
+      <c r="B269" s="28" t="s">
+        <v>444</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-    </row>
-    <row r="270" spans="1:5" ht="28.5">
+      <c r="E269" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="42.75">
       <c r="A270" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="42.75">
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B271" s="28" t="s">
-        <v>421</v>
+      <c r="B271" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" ht="28.5">
       <c r="A272" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>396</v>
+      <c r="B272" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="1:5" ht="28.5">
+    <row r="273" spans="1:5" ht="42.75">
       <c r="A273" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="1:5" ht="42.75">
+    <row r="274" spans="1:5" ht="28.5">
       <c r="A274" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B274" s="25" t="s">
-        <v>399</v>
+      <c r="B274" s="28" t="s">
+        <v>445</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-    </row>
-    <row r="275" spans="1:5" ht="28.5">
+      <c r="E274" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="85.5">
       <c r="A275" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B275" s="28" t="s">
-        <v>457</v>
+      <c r="B275" s="26" t="s">
+        <v>440</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="85.5">
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="1:5" ht="57">
       <c r="A276" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B276" s="26" t="s">
-        <v>450</v>
+      <c r="B276" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="1:5" ht="57">
+    <row r="277" spans="1:5" ht="85.5">
       <c r="A277" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
-    </row>
-    <row r="278" spans="1:5" ht="85.5">
+      <c r="E277" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B278" s="8" t="s">
-        <v>400</v>
+      <c r="B278" s="25" t="s">
+        <v>401</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="4" t="s">
-        <v>284</v>
-      </c>
+      <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B279" s="25" t="s">
-        <v>401</v>
+      <c r="B279" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" ht="28.5">
       <c r="A280" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>402</v>
+      <c r="B280" s="25" t="s">
+        <v>467</v>
       </c>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="1:5" ht="42.75">
+    <row r="281" spans="1:5" ht="28.5">
       <c r="A281" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B281" s="17" t="s">
-        <v>404</v>
+      <c r="B281" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -5749,76 +5926,76 @@
       <c r="A282" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B282" s="28" t="s">
-        <v>403</v>
+      <c r="B282" s="25" t="s">
+        <v>468</v>
       </c>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="E282" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15">
       <c r="A283" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B283" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B283" s="18" t="s">
         <v>405</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284" spans="1:5" ht="99.75">
       <c r="A284" s="4" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="1:5" ht="15">
+    <row r="285" spans="1:5" ht="185.25">
       <c r="A285" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B285" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="1:5" ht="99.75">
+    <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
-        <v>468</v>
+        <v>407</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="1:5" ht="185.25">
+    <row r="287" spans="1:5" ht="28.5">
       <c r="A287" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" ht="85.5">
       <c r="A288" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>411</v>
+        <v>379</v>
+      </c>
+      <c r="B288" s="28" t="s">
+        <v>493</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -5828,74 +6005,74 @@
       <c r="A289" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B289" s="17" t="s">
+      <c r="B289" s="28" t="s">
         <v>412</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="1:5" ht="71.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B290" s="17" t="s">
-        <v>413</v>
+      <c r="B290" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="1:5" ht="28.5">
+    <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B291" s="28" t="s">
-        <v>418</v>
+      <c r="B291" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" ht="28.5">
       <c r="A292" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>414</v>
+      <c r="B292" s="17" t="s">
+        <v>472</v>
       </c>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" ht="28.5">
       <c r="A293" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>415</v>
+      <c r="B293" s="17" t="s">
+        <v>471</v>
       </c>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" ht="42.75">
       <c r="A294" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>416</v>
+      <c r="B294" s="28" t="s">
+        <v>413</v>
       </c>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" ht="28.5">
       <c r="A295" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>417</v>
+      <c r="B295" s="28" t="s">
+        <v>414</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -5906,29 +6083,29 @@
         <v>379</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="1:5" ht="28.5">
+    <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B297" s="28" t="s">
-        <v>420</v>
+      <c r="B297" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="1:5" ht="42.75">
+    <row r="298" spans="1:5" ht="28.5">
       <c r="A298" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B298" s="28" t="s">
-        <v>422</v>
+      <c r="B298" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -5939,86 +6116,88 @@
         <v>379</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" ht="28.5">
       <c r="A300" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>424</v>
+      <c r="B300" s="28" t="s">
+        <v>434</v>
       </c>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="1:5" ht="28.5">
+    <row r="301" spans="1:5" ht="99.75">
       <c r="A301" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>440</v>
+        <v>486</v>
+      </c>
+      <c r="B301" s="30" t="s">
+        <v>487</v>
       </c>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
+      <c r="E301" s="4" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>438</v>
+        <v>310</v>
+      </c>
+      <c r="B302" s="30" t="s">
+        <v>436</v>
       </c>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="1:5" ht="28.5">
+    <row r="303" spans="1:5" ht="85.5">
       <c r="A303" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B303" s="28" t="s">
-        <v>441</v>
+        <v>310</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="1:5" ht="114">
+    <row r="304" spans="1:5">
       <c r="A304" s="4" t="s">
-        <v>379</v>
+        <v>255</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305" spans="1:5" ht="57">
       <c r="A305" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>443</v>
+        <v>486</v>
+      </c>
+      <c r="B305" s="30" t="s">
+        <v>488</v>
       </c>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-    </row>
-    <row r="306" spans="1:5" ht="85.5">
+      <c r="E305" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="142.5">
       <c r="A306" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>444</v>
+        <v>369</v>
+      </c>
+      <c r="B306" s="28" t="s">
+        <v>478</v>
       </c>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -6026,21 +6205,21 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>445</v>
+        <v>369</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>439</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" ht="28.5">
       <c r="A308" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>446</v>
+        <v>369</v>
+      </c>
+      <c r="B308" s="28" t="s">
+        <v>447</v>
       </c>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -6050,107 +6229,107 @@
       <c r="A309" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>459</v>
+      <c r="B309" s="28" t="s">
+        <v>441</v>
       </c>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="1:5" ht="71.25">
+    <row r="310" spans="1:5" ht="28.5">
       <c r="A310" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B310" s="25" t="s">
-        <v>447</v>
+        <v>310</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" ht="28.5">
       <c r="A311" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>448</v>
+        <v>379</v>
+      </c>
+      <c r="B311" s="28" t="s">
+        <v>443</v>
       </c>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" ht="85.5">
       <c r="A312" s="4" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B312" s="25" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="1:5" ht="28.5">
+    <row r="313" spans="1:5" ht="42.75">
       <c r="A313" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B313" s="28" t="s">
-        <v>463</v>
+        <v>379</v>
+      </c>
+      <c r="B313" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="1:5" ht="28.5">
+    <row r="314" spans="1:5" ht="57">
       <c r="A314" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B314" s="28" t="s">
-        <v>451</v>
+      <c r="B314" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="1:5" ht="28.5">
+    <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
         <v>310</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="1:5" ht="28.5">
+    <row r="316" spans="1:5">
       <c r="A316" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B316" s="28" t="s">
-        <v>454</v>
+        <v>310</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="1:5" ht="85.5">
+    <row r="317" spans="1:5" ht="28.5">
       <c r="A317" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B317" s="25" t="s">
-        <v>471</v>
+        <v>455</v>
+      </c>
+      <c r="B317" s="17" t="s">
+        <v>465</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="1:5" ht="28.5">
+    <row r="318" spans="1:5">
       <c r="A318" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B318" s="17" t="s">
-        <v>455</v>
+      <c r="B318" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -6160,60 +6339,332 @@
       <c r="A319" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B319" s="17" t="s">
-        <v>458</v>
+      <c r="B319" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="1:5" ht="57">
+    <row r="320" spans="1:5" ht="71.25">
       <c r="A320" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>464</v>
+      <c r="B320" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" ht="28.5">
       <c r="A321" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>465</v>
+        <v>379</v>
+      </c>
+      <c r="B321" s="17" t="s">
+        <v>459</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" ht="42.75">
       <c r="A322" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>466</v>
+        <v>379</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>460</v>
       </c>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="1:5" ht="114">
-      <c r="B323" s="30" t="s">
+    <row r="323" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B324" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B325" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" spans="1:5" ht="57">
+      <c r="A327" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C327" s="4"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B330" s="17" t="s">
         <v>470</v>
       </c>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" spans="1:5" ht="28.5">
+      <c r="A333" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B333" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="42.75">
+      <c r="A334" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B334" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="114">
+      <c r="A336" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="42.75">
+      <c r="A337" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B337" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" spans="1:5" ht="28.5">
+      <c r="A338" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B338" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339" spans="1:5" ht="114">
+      <c r="A339" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="1:5" ht="42.75">
+      <c r="A340" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B340" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" spans="1:5" ht="28.5">
+      <c r="A341" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="42.75">
+      <c r="A342" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B342" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343" spans="1:5" ht="42.75">
+      <c r="A343" s="4"/>
+      <c r="B343" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344" spans="1:5" ht="28.5">
+      <c r="A344" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345" spans="1:5" ht="28.5">
+      <c r="A345" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347" spans="1:5" ht="42.75">
+      <c r="B347" s="27" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E298">
+  <autoFilter ref="A1:E335">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B131" r:id="rId1"/>
-    <hyperlink ref="B285" r:id="rId2"/>
+    <hyperlink ref="B283" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -6866,79 +7317,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="29" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
